--- a/experiments/baselines/mcp_baseline.xlsx
+++ b/experiments/baselines/mcp_baseline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB306F18-3A3B-4299-8890-74C5B15504C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976AF2C1-B396-48E3-ADB8-C705D881721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{3DF6570E-302E-4264-8D58-78BD607EA244}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3DF6570E-302E-4264-8D58-78BD607EA244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Domain</t>
   </si>
@@ -2364,6 +2364,1989 @@
   <si>
     <t>ChatGPT-4</t>
   </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2.
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 59 seconds
+Navigating constraints
+I'm working through the missionaries and cannibals puzzle. The boat's capacity forces careful coordination, as leaving too many cannibals on either bank or boat while missionaries are present is risky.
+Ensuring safe passages
+OK, let me see. The goal is to transport 3 missionaries and 3 cannibals across a river without violating constraints. This involves methodically planning their trips to prevent dangerous encounters.
+Assessing initial options
+I’m calculating the boat's initial crossing by considering constraints and representations of state transitions. Option 1 is to send 2 cannibals to the right.
+Assessing safety
+I’m analyzing the missionaries' safety on both banks: the left bank is safe, while the right bank is not due to the lack of missionaries. Sending one cannibal back ensures the boat isn't empty and maintains balance.
+Revealing Riddles
+With 3M and 1C left, I sent 2 cannibals but returned 1. By moving 2 missionaries next, I ensured safety on both banks.
+Weighing the options
+I’m trying to determine the best course of action to ensure the safety of both missionaries and cannibals during their journey across the river. Sending the right combination of people back might provide a viable solution.
+Transferring groups
+I start by moving 1 missionary and 1 cannibal to the right. Then, I send 1 missionary back to the left. Next, 2 cannibals go across, and 1 cannibal returns. Finally, 1 cannibal crosses again.
+Determining safe crossings
+I mapped out the crossing of missionaries and cannibals, ensuring no missionaries were outnumbered by cannibals on either side. Confirmed all are safe.
+Revisiting my strategy
+I realized my previous approach might have been flawed. I’m re-evaluating the sequence and ensuring the boat can return to complete the task.
+Managing logistics
+I’m piecing together the boat’s crossing capacity with one cannibal, ensuring the missionaries stay safe. Adjusting the plan to meet these constraints is the key strategy.
+Crafting a new route
+On the left bank I have 2 missionaries and 2 cannibals. After crafting a way to start the boat across the river with a team of 1 missionary and 1 cannibal, I figured out how to return a missionary and then shift 2 cannibals. The boat stays on the right bank.
+Transferring cannibals
+I’m piecing together the process of moving three cannibals across the river. Each step aligns with the boat's movements, ensuring they don't exceed the safe limit.
+Spotting an issue
+OK, let me see. The sequence of boat crossings reveals a problem: in step 11, only one cannibal is left on the left bank, making it impossible for two to cross. This points to an inconsistency.
+Returning a cannibal
+I’m thinking through the dilemma of ensuring the boat isn't empty. Sending back a cannibal to the left bank seems like the best move.
+Trying another way
+To break the loop, I’ve decided to return 1 missionary and 1 cannibal. This leads to a new approach to safely move all the missionaries across the river.
+Reassessing the strategy
+I’m rethinking the ferrying plan after witnessing missionaries outnumbered by cannibals. Bringing back 2 cannibals in step 6 instead of 1 missionary and 1 cannibal seems like a smarter move.
+Reviewing options
+I’m considering the number of missionaries and cannibals on each bank, ensuring missionaries are never outnumbered by cannibals. Adjusting for optimal safety.
+Reassessing strategies
+Starting over with a different approach, I’m considering the standard solution of sending 2 cannibals first, then evaluating the missionaries' safety on the right bank.
+Navigating the journey
+I’m guiding cannibals and missionaries across the river. Each trip involves assessing risks to ensure safety on both banks. Progress is steady, balancing movement with careful planning.
+Assessing the situation
+I started by moving 1 missionary and 1 cannibal across, then sent one back. After ensuring their safety, I transported 2 missionaries and returned one. This sequence continued to ensure everyone's safety.
+Tackling the task
+OK, let me see: I’m thinking about moving all cannibals and missionaries across the river. I’m starting with two cannibals, then handling them one by one, and finally two cannibals simultaneously.
+Balancing the load
+I’m considering the boat's movements so that missionaries and cannibals never outnumber each other awkwardly. The scene shifts between the left and right banks, ensuring a smooth journey.
+Piecing together the plan
+I’m mapping out a plan to move all 3 missionaries and 3 cannibals across the river. I’m sticking to the constraint that missionaries are never outnumbered by cannibals on either side. Each step is carefully checked to ensure compliance.
+To solve the problem of safely transporting all three missionaries and three cannibals from bank1 to bank2 using the boat, we need to plan each crossing carefully while respecting all the given constraints. Below is a step-by-step plan that achieves this goal:
+Initial State:
+bank1: 3 missionaries (M), 3 cannibals (C), boat
+bank2: None
+Step-by-Step Plan:
+Crossing: Move 2 cannibals to bank2.
+bank1: 3M, 1C
+bank2: 0M, 2C
+Boat Location: bank2
+Reasoning: Missionaries are not outnumbered on either bank.
+Return: 1 cannibal returns to bank1.
+bank1: 3M, 2C
+bank2: 0M, 1C
+Boat Location: bank1
+Reasoning: Missionaries are safe on both banks.
+Crossing: Move 2 cannibals to bank2.
+bank1: 3M, 0C
+bank2: 0M, 3C
+Boat Location: bank2
+Reasoning: No missionaries are present with cannibals on bank2.
+Return: 1 cannibal returns to bank1.
+bank1: 3M, 1C
+bank2: 0M, 2C
+Boat Location: bank1
+Reasoning: Missionaries are safe on bank1.
+Crossing: Move 2 missionaries to bank2.
+bank1: 1M, 1C
+bank2: 2M, 2C
+Boat Location: bank2
+Reasoning: Missionaries are not outnumbered on either bank or in the boat.
+Return: 1 missionary and 1 cannibal return to bank1.
+bank1: 2M, 2C
+bank2: 1M, 1C
+Boat Location: bank1
+Reasoning: Keeps numbers balanced on both banks.
+Crossing: Move 2 missionaries to bank2.
+bank1: 0M, 2C
+bank2: 3M, 1C
+Boat Location: bank2
+Reasoning: All missionaries except one cannibal are on bank2.
+Return: 1 cannibal returns to bank1.
+bank1: 0M, 3C
+bank2: 3M, 0C
+Boat Location: bank1
+Reasoning: No missionaries on bank1 to be outnumbered.
+Crossing: Move 2 cannibals to bank2.
+bank1: 0M, 1C
+bank2: 3M, 2C
+Boat Location: bank2
+Reasoning: Transport remaining cannibals without risking missionaries.
+Return: 1 cannibal returns to bank1.
+bank1: 0M, 2C
+bank2: 3M, 1C
+Boat Location: bank1
+Reasoning: Prepare to transport the last cannibals.
+Final Crossing: Move the last 2 cannibals to bank2.
+bank1: 0M, 0C
+bank2: 3M, 3C
+Boat Location: bank2
+Reasoning: All individuals have successfully crossed.
+Conclusion:
+By following this plan, all three missionaries and three cannibals safely arrive at bank2 without violating any of the constraints:
+The boat never crosses empty.
+Cannibals never outnumber missionaries on either bank or in the boat.
+The boat's capacity is not exceeded.
+This plan ensures a safe and successful crossing for everyone involved.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a rowboat which carries at most two people at once. The rowboat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the rowboat or the missionaries will be eaten. The rowboat's capacity is 2.
+rowboat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The rowboat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 45 seconds
+Balancing the operation
+I'm thinking through the dynamics of moving three missionaries and three cannibals across a river, ensuring safety and no group is left behind.
+Formulating the plan
+I’m focusing on transporting six people across a river in a boat that holds two without leaving missionaries outnumbered by cannibals. This involves a logical puzzle with specific constraints.
+OK, let me see. The problem needs to ensure missionaries are never outnumbered by cannibals on either side or in the boat.
+Mapping out the plan
+OK, let's brainstorm a sequence to transport all missionaries and cannibals to bank2, ensuring the cannibals never outnumber the missionaries on the boat.
+Crafting a strategy
+I’m thinking about solving the boat-crossing problem by carefully analyzing each step to ensure missionaries aren't outnumbered by cannibals. Initially, I label the missionaries and cannibals for clarity, but consider if it's necessary.
+Mapping the journey
+I’m figuring out the initial setup with 3 missionaries and 3 cannibals on Bank1, aiming to get everyone to Bank2. The boat's capacity is key, and we need to avoid cannibals outnumbering missionaries on either bank.
+Mapping options
+I’m mapping out different scenarios for ferrying cannibals and missionaries. Sending two cannibals from Bank1 to Bank2 works, given the boat and bank constraints.
+Navigating the situation
+Considering the scenario on Bank2 with 2 cannibals and 0 missionaries, it seems the cannibals won't outnumber missionaries since there aren't any missionaries present.
+Evaluating return options
+I'm mapping out alternative ways for a cannibal to return the boat while ensuring the safety of the missionaries. The goal is to avoid situations where cannibals outnumber missionaries on either bank.
+Evaluating boat movements
+Sending one missionary and one cannibal to Bank2 is the best move. Next, I'll think through the returns.
+Laying out the options
+Thinking through the scenario, if the boat lacks missionaries, cannibals can still go back alone since the missionaries can't be outnumbered when empty.
+Navigating options
+Considering sending a cannibal back alone, but avoiding outnumbering missionaries. Instead, sending a single missionary back is viable and safe.
+Evaluating crossing options
+I’m considering various methods to prevent cannibals from outnumbering missionaries on either side of the river, ensuring a safe and strategic crossing.
+Evaluating options
+Sending two missionaries to Bank2 while avoiding cannibal overpopulation. Next, I'm figuring out the safest way to get the boat back to Bank1.
+Evaluating options
+OK, let me see. The boat is at Bank2. Sending 2M there leaves 2C on Bank1. No missionaries at risk. Returning 1C brings boat back, avoiding any harm.
+Mapping the strategy
+I’m guiding the boat with 2 missionaries and 2 cannibals from Bank1 to Bank2, then sending 1 cannibal back. This ensures the boat is unbalanced, leading to a successful plan.
+Transporting the cannibals
+I’m thinking through the movement of the boat and understanding the options. The goal is to shuttle both missionaries and cannibals across the river while avoiding conflicts.
+Crossing the line
+First, two cannibals cross to Bank2. Sending one back to Bank1 ensures the boat isn't empty. Finally, the remaining two cannibals cross to Bank2.
+Crafting the plan
+I’ve mapped out a strategy to safely transfer all missionaries and cannibals across the river in 9 steps. Each step ensures that no group is left alone with the cannibals.
+Formulating the plan
+I’m noting that using the vessel to transport groups between banks while adhering to constraints is the strategy. The plan will be formalized to ensure missionaries are never outnumbered.
+Charting the course
+I’m mapping out the steps for moving missionaries and cannibals from one bank to another using a rowboat, ensuring each group transition is clear and manageable.
+To solve the Missionaries and Cannibals problem under the given constraints, we need to plan a sequence of moves that ensures the safety of the missionaries at all times. Below is the step-by-step plan:
+Definitions:
+Vessel: Rowboat
+Locations: Bank1 (starting bank), Bank2 (destination bank)
+Groups: Missionaries, Cannibals
+Integers: Represent the number of individuals in a group
+Plan:
+Move 1 missionary and 1 cannibal from Bank1 to Bank2 using the rowboat.
+Boat Location: Moves to Bank2
+Bank1: 2 missionaries, 2 cannibals
+Bank2: 1 missionary, 1 cannibal
+Move 1 missionary from Bank2 back to Bank1 using the rowboat.
+Boat Location: Returns to Bank1
+Bank1: 3 missionaries, 2 cannibals
+Bank2: 0 missionaries, 1 cannibal
+Move 2 cannibals from Bank1 to Bank2 using the rowboat.
+Boat Location: Moves to Bank2
+Bank1: 3 missionaries, 0 cannibals
+Bank2: 0 missionaries, 3 cannibals
+Move 1 cannibal from Bank2 back to Bank1 using the rowboat.
+Boat Location: Returns to Bank1
+Bank1: 3 missionaries, 1 cannibal
+Bank2: 0 missionaries, 2 cannibals
+Move 2 missionaries from Bank1 to Bank2 using the rowboat.
+Boat Location: Moves to Bank2
+Bank1: 1 missionary, 1 cannibal
+Bank2: 2 missionaries, 2 cannibals
+Move 1 missionary and 1 cannibal from Bank2 back to Bank1 using the rowboat.
+Boat Location: Returns to Bank1
+Bank1: 2 missionaries, 2 cannibals
+Bank2: 1 missionary, 1 cannibal
+Move 2 missionaries from Bank1 to Bank2 using the rowboat.
+Boat Location: Moves to Bank2
+Bank1: 0 missionaries, 2 cannibals
+Bank2: 3 missionaries, 1 cannibal
+Move 1 cannibal from Bank2 back to Bank1 using the rowboat.
+Boat Location: Returns to Bank1
+Bank1: 0 missionaries, 3 cannibals
+Bank2: 3 missionaries, 0 cannibals
+Move 2 cannibals from Bank1 to Bank2 using the rowboat.
+Boat Location: Moves to Bank2
+Bank1: 0 missionaries, 1 cannibal
+Bank2: 3 missionaries, 2 cannibals
+Move 1 cannibal from Bank2 back to Bank1 using the rowboat.
+Boat Location: Returns to Bank1
+Bank1: 0 missionaries, 2 cannibals
+Bank2: 3 missionaries, 1 cannibal
+Move the final 2 cannibals from Bank1 to Bank2 using the rowboat.
+Boat Location: Moves to Bank2
+Bank1: 0 missionaries, 0 cannibals
+Bank2: 3 missionaries, 3 cannibals
+Outcome: All three missionaries and all three cannibals are safely on Bank2. At every step, the number of cannibals never outnumbers the number of missionaries on either bank or in the rowboat, thus adhering to all the constraints.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. Additionally, the missionaries and cannibals all have different hats. These hats can be exchanged among them.
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 65 seconds
+Identifying rules
+I’m thinking through the classic "Missionaries and Cannibals" puzzle, noting constraints, including hat exchanges and boat capacity. The challenge is to safely transport everyone while adhering to these rules.
+Charting the course
+I’m laying out a detailed plan to move all missionaries and cannibals to bank2, while carefully adhering to constraints and ensuring a smooth progression through each step.
+Figuring out the rules
+I’m working through the rules for the boat journey. I’m noting the constraints: no more cannibals than missionaries on either side, and the boat must always have occupants. Missionaries and cannibals have different hats that can be exchanged.
+Analyzing constraints
+I’m working through the constraints of the Missionaries and Cannibals problem, including the additional constraint that cannibals can't outnumber missionaries on the boat, and the hat exchange among them.
+Analyzing constraints
+I’m working through the problem with constraints: a boat for 2 people, no empty boat crossings, and missionaries cannot be outnumbered by cannibals on either bank or the boat. Hm, let me see, what strategy will work next?
+Balancing constraints
+I'm working through the problem by ensuring cannibals never outnumber missionaries on the boat and establishing a sequence for crossing. This involves not letting the boat cross empty and considering hat exchange implications.
+Mapping the situation
+OK, let's think this through: I’m listing possible states, considering boat capacity, and ensuring cannibals don't outnumber missionaries on the boat.
+Analyzing constraints
+I’m thinking through scenarios like if zero missionaries and one or two cannibals on the boat would work since cannibals wouldn't outnumber missionaries.
+Laying out the options
+OK, let me see. The boat must have at least one occupant, either a missionarie or a combination of a missionary and a cannibal. More cannibals can't outnumber missionaries on the boat.
+Mapping crossings
+OK, let me see. Starting with two missionaries crossing first from bank1 to bank2 isn't safe. The best initial move is to send one missionary and one cannibal together instead.
+Evaluating boat trips
+OK, let me see: I’m tallying the crossings to ensure missionaries outnumber cannibals on both banks, considering trips with 1 missionary, 2 missionaries, or 1 cannibal. Progress is happening!
+Assessing options
+I reviewed the condition of bank1 and bank2, considering various combinations of missionaries and cannibals crossing the river. The final option, 2 missionaries crossing, was deemed unacceptable due to missionaries being outnumbered by cannibals on bank1.
+Analyzing crossing strategies
+I’m assessing options for the third crossing. Crossing one missionary seems promising. However, the boat situation complicates having a single cannibal return. This calls for further examination before making a decision.
+Reevaluating crossing strategies: It's worth noting that returning the missionary appears to be the only viable option due to the lone cannibal rule.
+Navigating crossings
+I’m ensuring balanced crossings of missionaries and cannibals, aiming to avoid dangerous scenarios on either bank.
+Weighing options
+I’m realizing the loop from bank1 to bank2 and back is like a merry-go-round. Trying hat exchange to swap cannibals and missionaries might just shake things up.
+Assessing hat exchanges
+I’m thinking about how swapping hats might enable cannibals and missionaries to assume different roles, potentially fulfilling the constraints by about their identities or missions.
+Imagining alternative roles
+OK, thinking about treating hats as identity symbols for missionaries and cannibals. This leads me to consider role-swapping or adjusting balance for acceptable crossings.
+Contemplating hat swapping
+I'm working through the idea of cannibals and missionaries swapping hats to alter identities and solve identity puzzles, assessing if swapping hats changes their counts.
+Revisiting assumptions
+I’m thinking through starting with swapped hats for a different twist. This makes me wonder if constraints about hat roles can be bent or ignored, potentially creating a more feasible scenario.
+Assessing hat swapping
+I'm analyzing if hat swapping can resolve the problem, pondering how it might simplify the constraints, and then exploring possible solutions.
+Exchange and cross
+Starting with all six people at bank1. Exchange two cannibals and one missionary's hats, then cross with two "missionaries" (actually cannibals in missionary hats). Constraints now include two "missionaries" on the boat, three missionaries, one cannibal on bank1, and two "missionaries" (cannibals in missionary hats) on bank2.
+Navigating constraints
+OK, I’m working through the idea of maximizing crossings with a boat, ensuring no constraints are violated. Starting with three missionaries and one cannibal, two missionaries and one cannibal are transported to bank2. Now, a "missionary" (actually a cannibal wearing a missionary hat) needs to ferry the boat back.
+Analyzing the situation
+On bank1, I’m looking at four missionaries (one disguised cannibal) and one cannibal. On bank2, just one "missionary" (disguised cannibal). Next step: two missionaries crossing to bank2.
+Navigating constraints
+I’m working through the constraints of missionaries, cannibals, and their disguises across two banks, making sure the dynamics of their crossings adhere to the rules.
+Taking a closer look
+The boat carries two "missionaries" (one actual and one disguised cannibal), ensuring no group of missionaries is outnumbered by cannibals. The boat returns for the last cannibal.
+Navigating constraints
+I’m working to ensure the boat isn’t empty and that no cannibal is left alone. Now, one disguised cannibal returns to bank1. Crossing the boat with selected passengers maintains the constraints as specified.
+Analyzing hat swaps
+OK, let me see. I’m piecing together the hat swaps and mission details. Each character maintains their mission status and hat color. Progress is noted with each move.
+Executing the mission
+I’m working through transporting all missionaries and cannibals by swapping hats and ensuring the boat never has more cannibals than missionaries. Progress is steady and careful.
+Navigating the cross
+OK, let's think it through: missionaries and cannibals board the boat one after another. The goal is to shuttle everyone safely across without leaving anyone behind. Balancing boat capacity is key, and no bank should end up full of cannibals.
+Mapping the journey
+Charting the boat’s movements reveals the final crossing with cannibals donning missionary hats, crossing to Bank2, ensuring the group's safety and mission goals.
+Plan to Move All Missionaries and Cannibals from Bank1 to Bank2
+Note: In this solution, missionaries and cannibals can exchange hats, effectively swapping roles. The identities are determined by the hats they wear at any given moment.
+Initial State:
+Bank1: Missionaries M1, M2, M3; Cannibals C1, C2, C3
+Bank2: None
+Boat Location: Bank1
+Step-by-Step Plan:
+1. First Crossing
+Action: Cannibals C1 and C2 exchange hats with missionaries M1 and M2.
+Now, C1 and C2 are disguised as missionaries, and M1 and M2 are disguised as cannibals.
+Crossing: C1 and C2 (wearing missionary hats) cross to Bank2.
+Boat Occupants: Two "missionaries" (actually cannibals in disguise)
+State:
+Bank1: M3, M1*, M2*, C3 (wearing cannibal hats)
+Bank2: C1*, C2* (wearing missionary hats)
+Boat Location: Bank2
+2. Return Trip
+Action: C1 (wearing a missionary hat) returns to Bank1.
+Boat Occupant: One "missionary" (C1 in disguise)
+State:
+Bank1: M3, M1*, M2*, C3, C1*
+Bank2: C2* (wearing missionary hat)
+Boat Location: Bank1
+3. Second Crossing
+Action: M3 and M1* (one actual missionary and one missionary in disguise) cross to Bank2.
+Boat Occupants: Two "missionaries"
+State:
+Bank1: M2*, C3, C1*
+Bank2: M3, M1*, C2*
+Boat Location: Bank2
+4. Return Trip
+Action: M3 returns to Bank1.
+Boat Occupant: One missionary
+State:
+Bank1: M3, M2*, C3, C1*
+Bank2: M1*, C2*
+Boat Location: Bank1
+5. Third Crossing
+Action: M3 and M2* cross to Bank2.
+Boat Occupants: Two "missionaries"
+State:
+Bank1: C3, C1*
+Bank2: M3, M2*, M1*, C2*
+Boat Location: Bank2
+6. Return Trip
+Action: C2* (wearing a missionary hat) returns to Bank1.
+Boat Occupant: One "missionary" (C2* in disguise)
+State:
+Bank1: C3, C1*, C2*
+Bank2: M3, M2*, M1*
+Boat Location: Bank1
+7. Fourth Crossing
+Action: C3 and C1* exchange hats with M1* and M2* (now all cannibals wear missionary hats).
+Crossing: C3 and C1* (wearing missionary hats) cross to Bank2.
+Boat Occupants: Two "missionaries" (actually cannibals in disguise)
+State:
+Bank1: C2* (wearing missionary hat)
+Bank2: M3, M2*, M1*, C3*, C1*, C2*
+Boat Location: Bank2
+8. Final Crossing
+Action: C2* crosses to Bank2.
+Boat Occupant: One "missionary" (C2* in disguise)
+State:
+Bank1: None
+Bank2: All missionaries and cannibals
+Boat Location: Bank2
+Verification of Constraints at Each Step:
+Boat Capacity: Never exceeded two people.
+Boat Occupancy: Cannibals never outnumbered missionaries on the boat.
+Bank Populations: On neither bank did cannibals outnumber missionaries at any time.
+Hats and Identities: Hats were exchanged to ensure the roles matched the required conditions.
+All missionaries and cannibals have successfully crossed to Bank2 without violating any constraints.</t>
+  </si>
+  <si>
+    <t>Problem Description:
+Four missionaries and four cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2.
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Four missionaries and four cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 23 seconds
+Navigating constraints
+I'm noting the classic Missionaries and Cannibals problem with 4 missionaries and 4 cannibals, factoring in boat capacity and travel limitations. Progress is steady and challenging.
+Charting the course
+I’m determining a feasible plan for transporting 4 missionaries and 4 cannibals across a river in a boat with a 2-person capacity, while adhering to strict constraints to ensure safety.
+Mapping out the problem
+Considering the setup with 4 missionaries and 4 cannibals, and the boat's constraints. Ensuring cannibals don't outnumber missionaries on either bank or the boat.
+Analyzing options
+I’m mapping out the options for transport: sending 1 or 2 missionaries or cannibals, or 1 of each. The critical constraint is ensuring cannibals never outnumber missionaries on either bank.
+Thinking through the journey
+I’m analyzing the transfer of 2 cannibals using a boat. One cannibal returns to balance the numbers, and subsequent transfers are considered.
+Weighing options
+I’m thinking through the current setup: four missionaries and three cannibals on the initial side. Considering crossing and returning options to maintain balance.
+Handling exceptions
+Wondering if zero missionaries on a bank allows cannibals to outnumber them. Taking a closer look at the rules, it seems zero missionaries can't justify unequal cannibals.
+Evaluating transportation methods
+I’m mapping out transportation strategies by examining ferry routes and canoe crossings. The goal is to find a cost-effective and fuel-efficient option to minimize carbon footprint and overall expenses.
+Navigating options
+I'm thinking through the boat's route, considering returns and cannibals' counts on each bank for a safe crossing. Progress hinges on maintaining safe ratios.
+Assessing the constraints
+Piecing together the constraints, it seems the problem might align with the classic missionaries and cannibals scenario, suggesting a potential unsolvable situation.
+The problem you've presented is a variation of the classic "Missionaries and Cannibals" puzzle but with stricter constraints and an increased number of participants. In this version, there are four missionaries and four cannibals, and the boat can carry at most two people. Additionally, the boat cannot cross the river empty, and at no point can the cannibals outnumber the missionaries on either bank or on the boat, or the missionaries will be eaten.
+After careful analysis, we find that under these constraints, it is impossible to devise a plan to safely transport all the missionaries and cannibals from bank1 to bank2. Here's why:
+Initial State:
+Bank1: 4 missionaries (M), 4 cannibals (C), boat present.
+Bank2: Empty.
+Possible Moves and Constraints:
+The boat must carry at least one person (cannot cross empty) and can carry at most two.
+On the boat, cannibals cannot outnumber missionaries.
+On either bank, cannibals cannot outnumber missionaries.
+Attempted Strategies:
+Sending Cannibals First:
+Move: 2 cannibals cross to bank2.
+Resulting State:
+Bank1: 4M, 2C.
+Bank2: 2C.
+Return Trip: 1 cannibal returns (boat cannot be empty).
+Bank1: 4M, 3C.
+Bank2: 1C.
+Issue: Repeating this process eventually leaves more cannibals than missionaries on one bank, violating the constraints.
+Sending Missionaries and Cannibals Together:
+Move: 1 missionary and 1 cannibal cross to bank2.
+Bank1: 3M, 3C.
+Bank2: 1M, 1C.
+Return Trip: 1 missionary returns.
+Bank1: 4M, 3C.
+Bank2: 0M, 1C.
+Issue: Leaves a cannibal alone on bank2, and subsequent moves eventually lead to cannibals outnumbering missionaries on one of the banks.
+Sending Missionaries First:
+Move: 2 missionaries cross to bank2.
+Bank1: 2M, 4C.
+Bank2: 2M.
+Issue: Cannibals outnumber missionaries on bank1 (4C vs. 2M), violating the constraints.
+Conclusion:
+Every possible combination of moves results in a violation of the constraints at some point. The key issues are:
+Boat Limitations: With a maximum capacity of two and the boat unable to cross empty, options for safe transport are severely limited.
+Constraint Tightness: The rule that cannibals can never outnumber missionaries on either bank or on the boat makes it impossible to move groups without eventually violating this condition.
+Therefore, under the given constraints, there is no valid plan to get all four missionaries and four cannibals safely across the river.
+Answer:
+Under the given constraints, it is impossible to devise a plan that safely moves all the missionaries and cannibals to bank2 without violating the rules.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Six missionaries and six cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 3. Only one boat can cross at a time.
+Instance: 
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Six missionaries and six cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2.
+ChatGPT
+Thought for 44 seconds
+Setting the stage
+Six missionaries and six cannibals need to cross a river with a boat that holds two. This classic problem has limitations and constraints to consider, which will require careful planning and strategy.
+Mapping the scenario
+I’m piecing together the problem with six missionaries and six cannibals at bank1. The boat at bank1 can carry up to three passengers. The goal is to transport everyone to bank2 safely, without leaving any group outnumbered or endangered on either side of the river.
+Spotting constraints
+OK, I’m laying out the constraints for this puzzle: the boat can carry two people, it can't cross empty, and cannibals must never outnumber missionaries on either shore or the boat.
+Identifying contradictions
+It's interesting to see the conflicting details about the boat's capacity. Initially, it was said to carry two, then three passengers. This inconsistency needs clarification to progress with the solution.
+Pondering boat capacity
+I'm working through the boat's capacity, which can carry up to two people at a time, despite its possible three-person capacity.
+Considering different strategies
+I’m restructuring the problem, treating it like a classic missionaries and cannibals scenario with a 2-person boat, and adjusting for a 3-person boat capacity.
+Assessing boat capacity
+The boat can carry three people at once. It’s intriguing to see that missionaries and cannibals must cross without missionaries outnumbering cannibals on either side.
+Assessing the difficulty
+I'm evaluating the constraints of a strategic plan to transport six missionaries and six cannibals across a river using a boat with a three-person capacity, ensuring cannibals never outnumber missionaries on either side.
+Mapping the journey
+I’m charting out the crossing sequence for missionaries and cannibals, ensuring cannibals never outnumber missionaries. Starting with 6M and 6C, the initial move sends 3 cannibals to bank2.
+Assessing boat dynamics
+I'm mapping out the boat's capacity, ensuring cannibals don't outnumber missionaries. Moving 3 cannibals seems acceptable, but positions are critical to avoid imbalance when both sides are loaded.
+Assessing the situation
+The boat successfully transports 3 cannibals to bank2, ensuring missionaries are not outnumbered. A cannibal then returns the boat to bank1. Progress is steady and within constraints.
+Weighing the options
+OK, let me see. Sending 3 cannibals to the right bank leaves 6 missionaries and 1 cannibal on the left. This setup ensures missionaries aren't outnumbered by cannibals, keeping everyone safe.
+Addressing the challenge
+I’m working through the problem of ferrying cannibals with missionaries, ensuring no group is outnumbered on either bank. The method includes moving cannibals one by one and sending the boat empty to return.
+Testing different strategies
+Hmm, I’m thinking about starting with 2 missionaries and 1 cannibal. The boat rules are crucial to avoid mission failure since cannibals can't outnumber missionaries.
+Navigating the balance
+I'm piecing together the puzzle: The boat can't carry 5C and 4M without leaving the cannibals outnumbering missionaries on either bank. So, I considered moving 3 missionaries, but that's a no-go too. Then, I tried 2C and 1M, but once again, the cannibals outmatch the missionaries on the boat. Finally, moving 1C and 1M was a success.
+Evaluating options
+Analyzing the boat's journey, I assess the choices available to transport missionaries and cannibals while preventing them from being devoured. Progress is being made in identifying viable solutions.
+Analyzing the sequence
+I'm noting the movement of cannibals and missionaries across the banks, ensuring the boat's position and the bank's conditions are validated. The sequence is checked for potential dead ends or valid scenarios.
+Evaluating the transfer
+I’m weighing various combinations of moving missionaries and cannibals. Moving 1 missionary and 1 cannibal seems promising, ensuring balance on the boat.
+Reassessing the strategy
+OK, I’m re-evaluating the plan to avoid invalid moves. Sending just two missionaries instead of a missionary and a cannibal might prevent the unbalanced scenario where cannibals outnumber missionaries on the boat's opposite bank.
+Evaluating transportation tactics
+I'm mapping out various missionary and cannibal crossings to find a safe path. Bringing them back was tricky, but I'm starting to see some promising setups emerge.
+Evaluating constraints
+I’m considering the problem's constraints, such as boat capacity and the number of missionaries and cannibals, to determine if a solution is feasible. It’s interesting to see how these factors influence the problem's complexity.
+Analyzing the constraints
+I’m assessing the problem constraints, including the need for boat trips, possession limits, and even distribution of missionaries and cannibals. The challenge is analyzing potential solutions based on these requirements.
+Under the given constraints, it is impossible to devise a plan that allows all six missionaries and six cannibals to cross the river without violating the safety rules. Here's why:
+Boat Capacity vs. Constraints:
+Boat Capacity: The boat can carry a maximum of three people.
+Operational Constraint: The first paragraph mentions the boat "carries at most two people at once," which contradicts the boat's capacity of three. Assuming the boat can carry up to three people, we proceed with that.
+Safety Constraints:
+On Either Bank: Cannibals can never outnumber missionaries, or the missionaries will be eaten.
+On the Boat: Cannibals can never outnumber missionaries during any crossing.
+Boat Cannot Cross Empty: The boat must have at least one person on board to move.
+Problematic Scenarios:
+Attempting to Move Missionaries First:
+If you try to move missionaries to the other bank without moving any cannibals, you eventually leave more cannibals than missionaries on the original bank, violating the safety rule.
+Attempting to Move Cannibals First:
+Moving cannibals alone risks having them outnumber the missionaries on the destination bank unless carefully balanced, but bringing missionaries along introduces the risk of being outnumbered on the boat.
+Mathematical Impossibility:
+Balancing Act: With six missionaries and six cannibals, any division that attempts to move more people across will eventually create a scenario where on one side (or on the boat), cannibals outnumber missionaries.
+No Safe Transfer: The constraints prevent any group from moving without eventually violating the rules. For example:
+Moving 3 Cannibals: Leaves missionaries alone on the original bank, which is safe, but returning the boat requires a cannibal to come back, leaving more cannibals than missionaries on the destination bank.
+Moving Mixed Groups: Any combination risks cannibals outnumbering missionaries on the boat or on either bank.
+Conclusion:
+Constraints Conflict: The safety rules and the boat's capacity create conflicting requirements that cannot all be satisfied simultaneously.
+No Viable Solution: Given these immutable rules, no plan exists that allows all missionaries and cannibals to cross safely.
+Recommendation:
+Re-evaluate Constraints: Adjusting the number of individuals, changing the boat capacity, or relaxing some constraints might make the problem solvable.
+Clarify Ambiguities: The initial description has conflicting information about the boat's capacity. Ensuring consistent constraints is crucial for finding a solution.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. There is an oar on each bank. One person can cross in the boat with just one oar, but two oars are needed if the boat is to carry two people.
+boat is a vessel. bank1 and bank2 are locations. missionaries, cannibals, and oars are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 37 seconds
+Conceiving the challenge
+I’m mapping out a classic AI problem: three missionaries and three cannibals need to cross a river. Constraints include boat capacity, oar availability, and ensuring cannibals never outnumber missionaries.
+Identifying variables
+I’m noting the variables: boat, banks, missionaries, cannibals, and oars, and the initial state with three missionaries and three cannibals at bank1.
+Mapping out constraints
+I’m mapping out the conditions for boat crossings—1 or 2 people on the boat, oars stay on their banks, and cannibals never outnumber missionaries on any bank or the boat. Clarification is needed on oars' mobility.
+Mapping the dynamics
+OK, let me see. Oars embark on the journey whenever the boat does, which means oars always start on each bank.
+Crafting a plan
+I’m designing a strategy to ferry 3 missionaries and 3 cannibals across the river without breaking the constraints, considering boat carry limits and oar availability. Progress is steady and careful.
+Mapping the scenario
+I’m considering the initial state and potential first moves. One option is a cannibal crossing alone, but this could leave missionaries outnumbered on the bank.
+Assessing options
+Sending the cannibal back alone avoids cannibals outnumbering missionaries on the boat, leaving bank2 empty and returning to bank1.
+Weighing options
+I’m thinking through the choices: sending 2 cannibals together or using the extra oar from bank2 to bring 2 oars to bank1. None are practical.
+Evaluating constraints
+I’m mapping out the problem and considering how initial constraints might make it unsolvable. This leads me to think we might need to reframe the problem.
+Navigating oar movement
+OK, let me see. Someone taking an oar to the opposite bank leaves 2 in the boat and only 1 at the new bank. This small detail subtly shapes our progress.
+Piecing together the options, sending a missionary alone with the oar seems promising. However, the missionaries are outnumbered on bank1, leading to their consumption, making this path invalid.
+Mapping out constraints
+I’m gathering info on the constraints, trying various scenarios like cannibals returning without an oar. It’s interesting to see that the problem might be intentionally unsolvable.
+Analyzing movement options
+Considering the return of a cannibal alone and the implications for the state of missionaries and cannibals on both banks. Progressing through possibilities to determine the best course of action.
+CHUNK: Evaluating transportation
+I’m thinking through how the cannibal could move with the boat, especially addressing the challenge of transporting an oar to bank1 without someone there.
+Evaluating options
+OK, let's think this through: sending one person to bank2 with both oars seems impossible, since the boat must return. The initial move requires a rethink.
+Taking a fresh perspective
+I'm working through the problem by re-evaluating the oars' arrangement. Initially, I considered the oars staying at their banks but then thought about having them on the boat.
+Mapping oar logistics
+I'm piecing together the logistics of the boat crossing between banks, considering oar placements on each bank or on the boat.
+Evaluating oar logistics
+Thinking through the appraisal of oar logistics, situating oars on the banks clarifies oar handling. The challenge emerges in returning the boat without an oar, indicating an impossible scenario.
+Figuring out oar logistics
+I’m thinking through the oars, ensuring they move with the boat from bank1 to bank2, but the crossing stops when no one can return the boat to bank1.
+Considering constraints and conditions
+I’m grappling with the problem constraints, pondering if unsolvability stems from initial conditions or if the problem is inherently designed to challenge resolution.
+Understanding the constraints
+To solve this problem, we need to find a sequence of boat crossings that safely transports all three missionaries and all three cannibals from bank1 to bank2, without violating any of the given constraints.
+Constraints Recap:
+The boat can carry at most two people at once.
+The boat cannot cross the river empty.
+Cannibals can never outnumber missionaries on either bank or in the boat, or the missionaries will be eaten.
+There is an oar on each bank.
+One person can cross the river using the boat with just one oar.
+Two oars are needed if the boat is to carry two people.
+Initial State:
+Bank1: 3 missionaries, 3 cannibals, 1 oar, and the boat.
+Bank2: 0 missionaries, 0 cannibals, and 1 oar.
+Solution Steps:
+First Crossing:
+Passengers: 1 cannibal.
+Reasoning: We cannot send two people because only one oar is available on bank1, and two oars are needed for two people. Sending a missionary alone would leave the missionaries outnumbered on bank1.
+Resulting State:
+Bank1: 3 missionaries, 2 cannibals, 0 oars.
+Bank2: 0 missionaries, 1 cannibal, 2 oars (the cannibal brings the oar from bank1).
+Second Crossing:
+Passengers: The same cannibal returns to bank1.
+Reasoning: There's no one else on bank2 to bring the boat back. The cannibal must return, bringing an oar back.
+Resulting State:
+Bank1: 3 missionaries, 3 cannibals, 1 oar.
+Bank2: 0 missionaries, 0 cannibals, 1 oar.
+Note: We're back to the initial state, which indicates that this path is unproductive.
+Analysis:
+Given the constraints, every attempt to move a person from bank1 to bank2 results in one of the following issues:
+Missionaries Outnumbered: Moving a missionary alone leads to missionaries being outnumbered by cannibals on bank1.
+Boat Stranded: Moving a cannibal alone leaves the boat on bank2 with no one to bring it back.
+Insufficient Oars: We cannot send two people from bank1 because only one oar is available there.
+Conclusion:
+Under the given constraints, it is impossible to devise a plan that transports all missionaries and cannibals from bank1 to bank2 without violating the rules. The combination of limited oars and the need to prevent missionaries from being outnumbered by cannibals at any location makes the problem unsolvable as stated.</t>
+  </si>
+  <si>
+    <t>There are five types of things: vessel, location, group, basicGroup, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. Additionally, someone must row on the boat, and only one missionary and one cannibal can row.
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are basicGroups. rowers is a basic group. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 55 seconds
+Analyzing constraints
+I'm thinking through the constraints: the boat's max capacity is two, it can't cross empty, and cannibals shouldn't outnumber missionaries on either bank or the boat. One rower must be present.
+Mapping out constraints
+I’m focusing on the constraints getting crew and boat sorted. It’s interesting to see that the boat can only carry two people and can’t cross empty. Cannibals must never outnumber missionaries on either side or on the boat.
+Understanding boat constraints
+Mapping out the constraints, I see that the boat must carry at least one rower: either one missionary, one cannibal, or one of each.
+Mapping boat crews
+I’m outlining the constraints: only M1 or C1 can row, and the boat must always have one of them on board. This ensures that missionaries and cannibals never outnumber each other during crossings.
+Charting the course
+I’m figuring out who should cross the river first. It’s crucial to avoid cannibals outnumbering missionaries on either side or on the boat. M1 and C1 cross, and I’m thinking about who should return the boat.
+Evaluating crossing options
+I’m weighing the feasibility of having missionaries cross the boat while ensuring cannibals never outnumber them, then returning safely. Options include M1 and M2 or M1 with M3.
+Assessing options
+I’m analyzing the number of cannibals and missionaries on each bank. Crossing combinations are considered, and valid returns are identified. Missionaries do not get eaten.
+Adjusting my strategy
+I realized that sending M1 and C1 across didn't work; now I’m thinking of a new approach to avoid cannibals outnumbering missionaries.
+Analyzing implications
+M1 cannot return alone, leaving M2 and M3. C1 can return alone, but M1 returning doesn't advance progress.
+Weighing the options
+I'm thinking through the scenario of M1 and M2 crossing the river, leaving M3, C1, and C2 behind, while M1 alone returns.
+Evaluating transport choices
+Navigating crossing options to ensure missionaries outnumber cannibals left behind. Progress involves re-evaluating previous choices and trying new combinations.
+Transporting missionaries
+I’m working through transporting missionaries and cannibals across the river. Started with C1 and C3, then C1, C2, and back, ensuring no bank has more cannibals than missionaries. Progressing towards a solution.
+Reevaluating the strategy
+I'm thinking through the method of moving M1 and M2, ensuring M1 can return to the left bank, and avoiding confusion on the right bank.
+Reevaluating the approach
+I’m examining M1’s return to ensure safety, considering the cannibal mission scenario. This leads me to think about minimizing risk and avoiding any potentially dangerous situations.
+Mapping boat movements
+I’m figuring out how to transport cannibals and missionaries across a river, ensuring cannibals don't outnumber missionaries. Trying different sequences to keep everything balanced.
+Analyzing the problem
+I'm exploring various strategies to transport missionaries and cannibals across a river, taking into account the unique constraint that only one can row the boat each time.
+Shifting the boat
+I started by sending C1 with C2, then C1 returned, followed by sending M1 and M2 with C3. The boat stayed on the right bank, but C1 returned alone.
+Reassessing the scenario
+OK, let me see. M1 and M2 row across the river. M1 heads back, causing an imbalance of missionaries and cannibals on the banks.
+Evaluating crew options
+I'm working through the choices and lining up M2's inability to row. Tossing in M1 and C1 initially, then thinking through their return options. Progressing towards a solution here.
+Weighing possibilities
+Hmm, I'm thinking about the best mix of missionaries and cannibals. The goal is to avoid outnumbering. Still, some combinations feel pointless as they achieve nothing.
+Reevaluating the strategy
+Considering the limits of only one missionary and one cannibal who can row, it seems impossible to find a viable solution. This leads me to wonder if the problem needs to be rethought.
+Assessing transportation methods
+I’m looking at various combinations of missionaries (M) and cannibals (C) on both banks, but hitting a logically contradictory conclusion.
+To solve this problem, we need to transport all three missionaries and three cannibals from bank1 to bank2 using a boat that can carry at most two people and requires either the only rowing-capable missionary (M1) or the only rowing-capable cannibal (C1) to operate. Additionally, we must ensure that at no point do the cannibals outnumber the missionaries on either bank or on the boat, to prevent the missionaries from being eaten.
+Here is a step-by-step plan that meets all the given constraints:
+First Crossing:
+Passengers: C1 and C2
+Boat Operator: C1 (only cannibal who can row)
+Result:
+Bank1: M1, M2, M3, C3
+Bank2: C1, C2
+Return Trip:
+Passengers: C1
+Boat Operator: C1
+Result:
+Bank1: M1, M2, M3, C1, C3
+Bank2: C2
+Second Crossing:
+Passengers: M1 and C1
+Boat Operator: M1 or C1
+Result:
+Bank1: M2, M3, C3
+Bank2: M1, C1, C2
+Return Trip:
+Passengers: C2
+Boat Operator: (Not possible, since C2 cannot row)
+Issue: This step cannot proceed because C2 cannot operate the boat alone.
+At this point, we encounter a problem: C2 cannot row the boat back to bank1, and neither M1 nor C1 can return without violating the constraints (cannibals would outnumber missionaries on one of the banks).
+Conclusion:
+Given the constraints that only one missionary and one cannibal can row, and considering the safety rules about cannibals not outnumbering missionaries on either bank or on the boat, it is not possible to devise a plan that successfully transports all missionaries and cannibals from bank1 to bank2 without violating the rules.
+Explanation:
+Rowing Limitation: Only M1 and C1 can operate the boat. This severely limits the possible combinations for crossings and returns.
+Safety Constraints: The rule that cannibals cannot outnumber missionaries on either bank or the boat prevents us from leaving certain combinations of individuals together.
+Boat Capacity: With a maximum capacity of two people and the boat not allowed to cross empty, our options are further restricted.
+Therefore, under the given conditions, the mission cannot be accomplished without breaking the rules.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. Missionaries cannot row.
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 52 seconds
+Mapping the puzzle
+I’m piecing together the "Missionaries and Cannibals" problem with the classic constraints: the boat holds two, cannot cross empty, cannibals must not outnumber missionaries, and only cannibals can row.
+Map the scenario
+I’m gathering details on boat travel, bank locations, and groups of missionaries and cannibals, aiming to form a viable plan to transfer everyone safely across the river.
+Figuring out constraints
+I’m piecing together the constraints: boat capacity and rowers, cannibals not outnumbering missionaries, and ensuring canoes float across the river without cannibals outnumbering missionaries on either side or in the boat.
+Mapping out the mission
+I’m defining the state as the number of missionaries and cannibals on each bank, plus the boat location. The goal is to reach the final state through a sequence of legal moves.
+Clarifying movement rules
+Ok, let's discuss the movements: one or two cannibals cross, one missionary and one cannibal together, or two missionaries with a cannibal. Cannibals row; missionaries cannot go alone.
+Assessing crossing options
+I’m reviewing acceptable combinations for the boat, factoring in the constraints that missionaries cannot row and cannibals cannot outnumber missionaries on either bank. The valid combinations include one cannibal, two cannibals, or one cannibal and one missionary.
+Examining possible scenarios
+I’m analyzing the situation to ensure that cannibals never outnumber missionaries on either bank. Taking a closer look, the boat's current position is on the right bank.
+Splitting the party
+Now, it looks like two cannibals are pulling separate weight on each side, but the boat is stuck on the right bank.
+Considering another strategy, I suggest the cannibal and missionary cross together. Missionaries can't row, but cannibals can. The boat's return is managed by the cannibal, ensuring missionaries are safe.
+Mapping out choices
+Starting with two missionaries and three cannibals, I’m testing various combinations to avoid cannibals outnumbering missionaries. Progressing through different scenarios, the aim is to solve the puzzle effectively.
+Considering alternatives
+I'm analyzing different strategies, like sending two cannibals or a cannibal and a missionary, to move across the river without creating illegal states.
+Assessing return options
+I'm thinking about a cannibal and a missionary returning together. The cannibal can row the boat alone, but this move reverses progress. So, I’m looking at a new strategy.
+Returning to transport
+A cannibal rows the boat back to the left bank, ensuring there are no missionaries outnumbered by cannibals. The boat is now on the left bank.
+Assessing cross-river options
+I realized sending two missionaries alone or returning a cannibal to the left bank are impractical due to constraints.
+Assessing options
+I’m mapping out the sequence of sending cannibals and missionaries back and forth, ensuring missionaries aren't outnumbered or eaten.
+Returning the cannibal
+Interestingly enough, I decided to send two cannibals back first. One cannibal returned first, then the second cannibal crossed, ensuring missionaries or cannibals were never outnumbered on either side.
+Returning the boat
+OK, let me see. One cannibal rows the boat back to the left bank, ensuring better missionary protection when they cross later.
+Evaluating options
+I’m working through scenarios for crossing the river, considering the boat's capacity and the missionaries' and cannibals' abilities to row. The aim is to find a viable solution.
+Assessing current state
+I noticed an imbalance in the boat's location, with cannibals outnumbering missionaries on the right bank. Considering sending cannibals back to balance the equation.
+Aligning resources
+I’m working through relocating two cannibals to the left bank. The boat can carry two, but missions require strategic coordination with cannibals. This ensures safe transport and adherence to constraints.
+Navigating the journey
+I’m figuring out how to get everyone across without risks. Crossings are back and forth with cannibals, missionaries, and the boat, ensuring safety and avoiding being outnumbered by cannibals.
+Weighing alternatives
+I’m exploring sending different combinations of cannibals and missionaries across the banks to avoid missionaries being outnumbered and ensure safe travel. Progress is evident, but each choice narrows down the options further.
+Assessing options
+I evaluated sending two missionaries with a cannibal, but the boat won't hold them. Considering one missionary seems unfeasible since they can't row. Sending a cannibal alone is impractical, and two cannibals don't help.
+Analyzing safe states
+I'm gathering info on safe states for cannibals and missionaries, using a graph to map out acceptable states and transitions. This approach helps identify all valid scenarios for solving the problem.
+Mapping state possibilities
+I’m focusing on potential states in the cannibals and missionaries problem, ensuring no group outnumbers the other on either bank or the boat.
+Evaluating the challenge
+OK, let me see. By scrutinizing the constraints, such as missionaries not rowing, it's apparent that solving this puzzle is impractical. Thus, solving the puzzle under these conditions seems unfeasible.
+After carefully analyzing the problem and considering all possible moves that adhere to the given constraints, it becomes evident that the task is impossible under the specified conditions. Here's why:
+Constraints Recap:
+Boat Capacity: The boat can carry a maximum of two people and cannot cross the river empty.
+Rowing Ability: Only cannibals can row; missionaries cannot.
+Safety Rule: Cannibals can never outnumber missionaries on either bank or in the boat if missionaries are present; otherwise, the missionaries will be eaten.
+Analysis:
+Missionaries Cannot Travel Alone: Since missionaries cannot row, they cannot travel alone in the boat.
+Boat Combinations: The only possible combinations for crossing are:
+One cannibal alone
+Two cannibals
+One cannibal and one missionary
+Let's attempt to create a sequence of moves:
+First Crossing: Send two cannibals to the right bank.
+Left Bank: 3 missionaries, 1 cannibal
+Right Bank: 2 cannibals
+Boat Location: Right bank
+Status: Safe (Cannibals do not outnumber missionaries on the left bank)
+Returning Cannibal: Bring one cannibal back to the left bank.
+Left Bank: 3 missionaries, 2 cannibals
+Right Bank: 1 cannibal
+Boat Location: Left bank
+Status: Safe
+Second Crossing: Send two cannibals to the right bank again.
+Left Bank: 3 missionaries, 0 cannibals
+Right Bank: 3 cannibals
+Boat Location: Right bank
+Status: Safe
+Returning Cannibal: Bring one cannibal back to the left bank.
+Left Bank: 3 missionaries, 1 cannibal
+Right Bank: 2 cannibals
+Boat Location: Left bank
+Status: Safe
+Attempted Crossing with Missionary: Now, try to send a cannibal and a missionary to the right bank.
+Left Bank: 2 missionaries, 0 cannibals
+Right Bank: 1 missionary, 3 cannibals
+Boat Location: Right bank
+Status: Unsafe
+Issue: On the right bank, the missionaries are outnumbered by cannibals (3 cannibals vs. 1 missionary), violating the safety rule.
+Conclusion:
+No Safe Sequence: Any attempt to get missionaries across the river results in them being outnumbered by cannibals on the opposite bank or leaves them without the means to cross (since they cannot row).
+Impossible Task: Under the given constraints, it's impossible to devise a plan where all missionaries and cannibals safely reach the other side without violating the safety rule.
+Final Answer:
+Given the constraints that missionaries cannot row and the safety rules in place, it is impossible to find a plan that safely transports all three missionaries and all three cannibals to the other side of the river.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. There is a large cannibal which cannot fit in the boat with another person.
+Instance: 
+boat is a vessel. bank1 and bank2 are locations. missionaries, cannibals and big cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 59 seconds
+Analyzing constraints
+I’m noting the constraints: boat capacity of 2, essential occupation rules, and a large cannibal who needs special handling.
+Clarifying the sequence
+I’m mapping out the problem of transferring three missionaries and three cannibals, including one large cannibal, across a river to the opposite bank without violating safety constraints.
+Mapping the scenario
+Starting with 3 missionaries and 3 cannibals, including a big one, I’ll strategize their river crossing, ensuring no side has more cannibals than missionaries. The boat holds one or two people.
+Identifying constraints
+I’m noting the constraints of the problem, including the boat capacity, the prohibition against empty crossings, and the crucial rule regarding the big cannibal.
+Drafting the plan
+I'm working through the constraints of the problem. Cannibals and missionaries can't outnumber each other on either bank or in the boat. Let's figure out a strategy to ensure their safe passage.
+Assessing initial options
+Starting with 3 missionaries, 2 canoes, 1 big cannibal on the left bank and the boat on the left. Two missionaries will row to the right bank.
+Assessing safety
+OK, let's see. The state where the boat is on the right bank is safe: missionaries outnumber cannibals on both sides. Now, we need to find a way to return the boat.
+Evaluating crossing options
+I’m noting two choices: sending 1C back or 1M. The latter configuration allows for safer transport with missionaries outnumbering cannibals, ensuring no missionary is harmed.
+Navigating the journey
+Sending 2 people across with a careful choice of 1M and 1C. Ensuring safety by monitoring missionary and cannibal dynamics on both banks. Progress is steady.
+Reevaluating decisions
+Taking a closer look
+I’m thinking about separating the big cannibal (BC) from the others since he can't be in the boat with them. This helps clarify the movements and keeps things accurate.
+Balancing the boat
+I’m mapping out the boat crossing. The missionaries and cannibals are safe, with no cannibals outnumbering missionaries. The boat heads back empty to the left bank, allowing progress without any issues.
+Evaluating options
+OK, let me see. Sending 2 missionaries across isn't safe since the right bank won't be balanced and the left bank can tip the scales. Adjusting the plan is crucial.
+Adjusting the strategy
+I’m re-evaluating the approach, opting to send two normal cannibals (C1 and C2) to the right bank. This ensures the cannibals are outnumbered by missionaries, maintaining safety.
+Transporting the group
+I sent one cannibal back to the right bank, ensuring no one was outnumbered. M1 and M2 crossed, but two cannibals nearly overwhelmed M3.
+Ensuring safety
+I’m mapping out the boat's journey with various combinations to maintain missionary and cannibal safety. For instance, sending M1 and C1 together is acceptable, but their presence on the right bank alone isn't.
+Reevaluating options
+Thinking through the boat crossing strategy, I’m noticing that the big cannibal can't return alone, and the boat can't cross empty. This puzzle requires rethinking the approach for safe passage.
+Evaluating return options
+I'm thinking through whether the big cannibal can return the boat alone, which might result in repetitive crossings. Considering the constraints, a new approach is necessary.
+Navigating the riverbanks
+I’m setting up a plan for the boat to return with one cannibal, balancing the sides carefully. This approach helps in avoiding imbalance on any bank.
+Ensuring safety
+I’m piecing together the safety of the banks by balancing missionaries, cannibals, and the boat. This step is crucial to make sure no one is outnumbered or stranded.
+Transporting individuals
+I’m working through the logistics of moving M1 and BC to the right bank. The boat can't return empty, and big cannibal can't share it with M1.
+Identifying constraints
+I’m examining constraints where the boat can’t cross empty and cannibals outnumber missionaries. Considering sending a big cannibal first but hitting a snag with the boat returning empty.
+Revisiting the constraints
+I'm thinking about the scenario where the big cannibal is moved last. It might be best to send C1 and C2 first, then have C1 return, followed by sending M1 and M3.
+Adjusting my approach
+I’m thinking through transport methods by moving M1 and C1, then M2 and C1, but missionaries always outnumber cannibals on the right bank, which is unstable.
+Evaluating boat options
+I’m mapping out the feasibility of sending M1 and M3, as the boat can only be crossed with C1 and BC, leaving M2 behind. The issue arises when the cannibals outnumber missionaries on the left bank.
+To solve this problem, we need to transport three missionaries (M1, M2, M3), two regular cannibals (C1, C2), and one big cannibal (BC) from bank1 to bank2 using a boat that can carry a maximum of two people and cannot cross the river empty. Additionally, the big cannibal cannot share the boat with anyone else due to size constraints. Throughout the process, cannibals can never outnumber missionaries on either bank or in the boat, or the missionaries will be eaten.
+Let's attempt to find a sequence of moves that satisfies all these constraints:
+Initial State:
+Bank1 (Left Bank): M1, M2, M3, C1, C2, BC
+Bank2 (Right Bank): None
+Boat Location: Bank1
+Move 1:
+Action: Send Cannibals C1 and C2 to Bank2.
+Boat Occupants: C1 and C2
+Resulting State:
+Bank1: M1, M2, M3, BC
+Bank2: C1, C2
+Boat Location: Bank2
+Safety Check:
+Bank1: 1 big cannibal and 3 missionaries (Cannibals do not outnumber missionaries)
+Bank2: 2 cannibals (No missionaries to outnumber)
+Move 2:
+Action: Send Cannibal C1 back to Bank1.
+Boat Occupants: C1
+Resulting State:
+Bank1: M1, M2, M3, C1, BC
+Bank2: C2
+Boat Location: Bank1
+Safety Check:
+Bank1: 1 big cannibal, 1 regular cannibal, and 3 missionaries (Cannibals do not outnumber missionaries)
+Bank2: 1 cannibal (No missionaries to outnumber)
+Move 3:
+Action: Send Missionaries M1 and M2 to Bank2.
+Boat Occupants: M1 and M2
+Resulting State:
+Bank1: M3, C1, BC
+Bank2: M1, M2, C2
+Boat Location: Bank2
+Safety Check:
+Bank1: 1 big cannibal, 1 regular cannibal, and 1 missionary (Cannibals outnumber missionaries on Bank1—Unsafe)
+At this point, the plan fails because the cannibals outnumber the missionaries on Bank1, leading to the missionaries being eaten. This issue arises because we cannot move two missionaries to Bank2 without leaving an unsafe situation on Bank1.
+Alternative Attempts:
+Sending the Big Cannibal Alone: The big cannibal can cross alone, but the boat cannot return since it cannot cross empty, and the big cannibal cannot bring anyone back due to the size constraint.
+Sending One Missionary and One Cannibal: This eventually leads to cannibals outnumbering missionaries on one of the banks or in the boat.
+Other Combinations: All other combinations of moves have been tested and result in violating one or more constraints.
+Conclusion:
+Given the constraints:
+Boat capacity of two people.
+Boat cannot cross empty.
+Cannibals cannot outnumber missionaries on any bank or in the boat.
+The big cannibal cannot share the boat with anyone else.
+It is impossible to devise a plan that safely transports all missionaries and cannibals from bank1 to bank2 without violating the given rules.
+Answer:
+It is impossible to find a plan that satisfies all the given constraints; the missionaries and cannibals cannot all cross the river safely under these conditions.</t>
+  </si>
+  <si>
+    <t>Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. There is one large cannibal and one small missionary, which if left alone the small missionary will be eaten.
+boat is a vessel. bank1 and bank2 are locations. missionaries, cannibals, small missionaries, and big cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 60 seconds
+Navigating the challenge
+I’m working through a variation of the classic Missionaries and Cannibals problem, addressing specific constraints: cannibals mustn't outnumber missionaries on either bank or the boat, and a large cannibal cannot be left alone with a small missionary.
+Breaking down the problem
+I’m establishing the initial state: 3 missionaries and 3 cannibals on bank1, with the boat. The goal is to transport everyone to bank2 while adhering to the constraints.
+Pointing out the limits
+OK, let me see: the boat can only carry two people, and cannibals mustn't outnumber missionaries on either bank or the boat. The small missionary can't be left alone with the large cannibal.
+Mapping out risks
+I realize that the small missionary is at risk if left alone with the large cannibal. Ensuring that missionaries outnumber cannibals on each bank and boat is crucial.
+Assessing constraints
+I’m considering the constraints of the problem: cannibals should never outnumber missionaries on either bank or the boat, and the small missionary should never be alone with the large cannibal. This sets the stage for safely planning the transfer.
+Piecing together boat selections
+Choosing the boat size involves sending either 1 or 2 people. Initially, sending 2 missionaries isn't viable due to the constraints. So, I opt for 1 missionary and 1 cannibal, ensuring missionaries are safe.
+Making a safe return
+Let's think this through: sending the cannibal back leaves Missionaries at risk due to their numbers. The missionary safely returns instead, maintaining a balanced ratio and ensuring safety.
+Navigating options
+I’m weighing the choice to send two cannibals to Bank2. Cannibals outnumber missionaries, so the boat must return. Option 3a, having a cannibal return, is acceptable.
+Evaluating the scenario
+OK, let me see. By sending two missionaries from Bank1 to Bank2, I ensure the cannibals don't outnumber the missionaries there. I need to bring the boat back without leaving a small missionary with a regular cannibal.
+Evaluating boat logistics
+OK, let me see. Considering the boat's potential return with a smaller group to avoid dangerous imbalances, sending one cannibal back from Bank2 to Bank1 seems safest.
+Transporting and evaluating
+I sent the large cannibal and small missionary across to Bank2, checked it was acceptable, and returned to Bank1.
+Mapping the journey
+I’m setting out the steps of the ferry, ensuring each scenario adheres to the rules, and confirming the final situation matches the expected outcome. Progress is steady and consistent.
+Ensuring safe passage
+I'm mapping out the canoe crossings to prevent missionaries from being outnumbered by cannibals. Each step maintains a safe balance between the two groups, confirming no one is at risk.
+Mapping the sequence
+I'm charting out the steps to get everyone across the river, ensuring we avoid problematic combinations. Each move is carefully considered to maintain safety.
+Adjusting my strategy
+OK, let me see. The current plan encounters a challenge with cannibals outnumbering missionaries on either bank. Considering alternatives like sending a cannibal or both back, but constraints on the boat's capacity and mission requirements need to be kept in mind.
+Revisiting strategies
+I’m considering an alternative approach for step 5, involving sending one missionary and one cannibal. This move, however, results in cannibals outnumbering missionaries on Bank2, which is unacceptable.
+Troubleshooting alternatives
+I’m examining potential solutions for Bank1 and Bank2, noting that alternatives like sending a cannibal or the slave back don’t solve the problem of cannibals outnumbering missionaries.
+Evaluating bank crossings
+I'm noting the movements of people and objects between banks, aiming to devise a practical strategy. Progressing through each step, I identify obstacles and refine the approach to ensure the solution is more efficient and feasible.
+Balancing transit
+I'm considering three cannibals and one missionary on one side, planning to finally transfer the missionaries over. It’s like a strategic journey of balancing numbers and ensuring safe passage.
+Revisiting the strategy
+OK, let me see. I thought about sending one missionary and one cannibal together in the boat. This shift ensures that cannibals don't outnumber missionaries at any bank, maintaining balance.
+Evaluating boat trips
+I’m considering sending cannibals first to avoid outnumbering missionaries. This strategy helps reduce risks and keeps progress steady.
+Mapping out the series of movements and ensuring the cannibals never outnumber the missionaries was a bit challenging. It required carefully re-evaluating every step to ensure a safe crossing.
+Ensuring safe passage
+I’m coordinating the flow of missionaries and cannibals across both banks, ensuring safe travel and return, and verifying progress until all are successfully on the second bank.
+Moving cannibals
+I transported 1 cannibal and 1 LC to Bank2. Then, I returned a cannibal to Bank1 and finally moved 2 cannibals to Bank2.
+Transferring items
+I’m charting the movement of items between banks, ensuring the process is compliant and meticulously organized.
+Crossing and checking
+I’m examining each step where missionaries and cannibals cross the river, ensuring they never outnumber each other on either bank. Progress is steady, with each step checked for safety.
+To solve this variation of the classic Missionaries and Cannibals problem, we need to carefully plan each boat crossing to ensure that the constraints are met at every step:
+Cannibals may not outnumber missionaries on either bank or in the boat.
+The small missionary and the large cannibal cannot be left alone together, or the small missionary will be eaten.
+The boat cannot cross the river empty and can carry at most two people.
+Here's the step-by-step plan:
+Step 1:
+Cross: The regular cannibal (C) and the large cannibal (LC) cross to bank2.
+Bank1: 3 Missionaries (M, M, SM), 1 Cannibal (C).
+Bank2: C, LC.
+Constraints Met: Missionaries are not outnumbered on either bank.
+Step 2:
+Return: The large cannibal (LC) returns to bank1.
+Bank1: M, M, SM, C, LC.
+Bank2: C.
+Constraints Met: Missionaries are not outnumbered on either bank.
+Step 3:
+Cross: The two missionaries (M, M) cross to bank2.
+Bank1: Small missionary (SM), Cannibal (C), Large Cannibal (LC).
+Bank2: M, M, C.
+Constraints Met: Missionaries are not outnumbered on either bank.
+Step 4:
+Return: One missionary (M) returns to bank1.
+Bank1: M, SM, C, LC.
+Bank2: M, C.
+Constraints Met: Missionaries are not outnumbered on either bank.
+Step 5:
+Cross: The missionary (M) and the small missionary (SM) cross to bank2.
+Bank1: Cannibal (C), Large Cannibal (LC).
+Bank2: M, M, SM, C.
+Constraints Met: Missionaries are not outnumbered on either bank, and the small missionary is safe.
+Step 6:
+Return: The regular cannibal (C) returns to bank1.
+Bank1: C, C, LC.
+Bank2: M, M, SM.
+Constraints Met: No missionaries are present on bank1 to be outnumbered.
+Step 7:
+Cross: The regular cannibal (C) and the large cannibal (LC) cross to bank2.
+Bank1: Regular Cannibal (C).
+Bank2: M, M, SM, C, LC.
+Constraints Met: Missionaries are not outnumbered on bank2.
+Step 8:
+Return: The regular cannibal (C) returns to bank1.
+Bank1: C, C.
+Bank2: M, M, SM, LC.
+Constraints Met: No missionaries are present on bank1 to be outnumbered.
+Step 9:
+Cross: The two regular cannibals (C, C) cross to bank2.
+Bank1: Empty.
+Bank2: M, M, SM, C, C, LC.
+Constraints Met: All individuals are safely on bank2, and constraints are satisfied.
+This plan ensures that at no point are the cannibals able to outnumber the missionaries on either bank or in the boat, and the small missionary is never left alone with the large cannibal.
+Final Answer:
+A plan that safely moves everyone to bank2 while meeting all constraints is:
+C and LC cross to bank2.
+LC returns to bank1.
+M and M cross to bank2.
+M returns to bank1.
+M and SM cross to bank2.
+C returns to bank1.
+C and LC cross to bank2.
+C returns to bank1.
+C and C cross to bank2.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. Additionally, one of the missionaries is Jesus, who can walk across by walking on the water.
+ChatGPT
+Thought for 57 seconds
+Considering tasks
+I'm gathering details on understanding the problem and figuring out the user's request for an optimal solution to the "Missionaries and Cannibals" puzzle with modifications.
+Interpreting the problem
+I’m identifying the problem as a modeling task involving four elements: vessel, location, group, and integer. Additionally, it involves solving the missionaries and cannibals problem with the unique condition of one missionary being Jesus.
+Analyzing the configuration
+I'm structuring the puzzle's parameters, focusing on boat capacity, relative numbers of missionaries and cannibals, and the unique status of one missionary who can walk on water.
+Assigning roles
+I’m piecing together names for the missionaries and cannibals, aiming to navigate the river while adhering to the constraints. This adds a personalized touch to the sequence of events.
+Analyzing the scenario
+I’m analyzing the problem in which Jesus and five cannibals must cross a river using a boat that holds two people. Cannibals cannot outnumber missionaries on either bank or the boat. Interestingly, Jesus can walk on water, which might offer unique strategies.
+Formulating a strategy
+I'm laying out a plan to ensure missionaries and cannibals cross the river without outnumbering missionaries on either bank, with Jesus crossing too.
+Ensuring safety
+AI is reminding me that prayer alone isn't enough; wisdom and caution are still essential in resolving this situation.
+Evaluating initial steps
+I’m mapping out the first move: two cannibals crossing the river, but returning the boat without violating rules is tricky. Progress surely requires careful consideration.
+Evaluating the options
+I’m starting with the idea that Jesus and a missionary cross the river, leaving cannibals on the left. The boat’s return alone is problematic since it can't cross empty, creating a delicate balance.
+Evaluating options
+I’m thinking about various strategies to transport the group across the river, ensuring cannibals don't outnumber missionaries on either side. Each option is carefully considered and tested for feasibility.
+Strategizing cannibal crossings
+To balance cannibals and missionaries, send C1 back alone, then ferry C1 and C3 from left to right, ensuring no side outnumbers missionaries. Progress is steady.
+Balancing the numbers
+C1 heads back to the left bank, balancing the missionaries, while M1 and M2 cross to the right bank, maintaining a safe ratio.
+Taking a closer look at the options, I noticed that having C2 alone on the boat is risky since cannibals outnumber missionaries on either bank. This narrows the choices to configurations where no group outnumbers the other.
+Revisiting strategies
+OK, let me see: considering scenarios with or without missionaries on the boat. The current plan risks cannibals outnumbering missionaries on the left bank.
+Evaluating crossings
+I’m mapping out different crossing scenarios for Jesus, missionaries, and cannibals, ensuring cannibals never outnumber missionaries on any bank. Each option ultimately fails due to cannibals' overwhelming numbers.
+Coordinating boat trips
+OK, let me break this down: Jesus and a cannibal initially row to the right bank. Then, Jesus returns alone to bring another cannibal across, ensuring the cannibals never outnumber the missionaries.
+Navigating the scenario
+I decided that M1 and C1 will return to the left bank. This keeps the cannibals outnumbered by missionaries, ensuring safety.
+Crafting strategies
+Returning cannibals and missionaries in stages to avoid outnumbering scenarios on either bank, but a plan is thwarted when the boat remains on the left bank, trapping two cannibals. Further adjustments are needed.
+Evolving the strategy
+I'm thinking about a more flexible approach involving Jesus and his ability to walk on water, while respecting the rules of cannibals, missionaries, and boat capacity.
+Balancing the odds
+I’m thinking through solutions to manage cannibals and missionaries, with Jesus possibly aiding by moving across banks as needed to ensure the groups remain balanced.
+Navigating the crossings
+Moving back and forth, the boat carries missionaries and cannibals to avoid outnumbering. Could a cannibal like C1 ferry others safely? Progressing towards a solution!
+Reevaluating the strategy
+Assessing options where cannibals might outnumber missionaries, leading to the missionaries' demise. Exploring variations to find a viable solution.
+Figuring out solutions
+I’m examining river crossing strategies with cannibals and missionaries, ensuring missionaries aren't outnumbered on any bank to avoid them being eaten. Approach involves analyzing vessels, locations, groups, and integers.
+Evaluating the scenario
+OK, let me see. The challenge is to ferry everyone without missionaries outnumbered by cannibals on either bank or boat. Jesus walking on water might help.
+Formulating a protective strategy
+Jesus remains on the left bank to safeguard missionaries while cannibals cross first, ensuring missionaries outnumbered by cannibals don't encounter danger.
+Ensuring safe passage
+I am finding that one cannibal needs to return to prevent outnumbering missionaries. Progressing towards a safe crossing is key, and maintaining balance is crucial.
+The problem you've presented is a variation of the classic "Missionaries and Cannibals" puzzle with additional constraints:
+Boat Capacity: The boat can carry at most two people.
+Boat Movement: The boat cannot cross the river empty.
+Safety Rule: Cannibals can never outnumber missionaries on either bank or on the boat; otherwise, the missionaries will be eaten.
+Special Condition: One missionary is Jesus, who can walk across the river on water.
+Objective: Safely transport all three missionaries and all three cannibals across the river following the given constraints.
+Analysis and Solution Attempt
+Let's attempt to find a sequence of moves that satisfies all the conditions.
+Notation:
+M1: Jesus (Missionary who can walk on water)
+M2, M3: Other missionaries
+C1, C2, C3: Cannibals
+Left Bank (Start): All individuals begin here.
+Right Bank (Goal): Destination bank.
+Key Constraints to Consider:
+Boat cannot cross empty: Someone must be in the boat for every crossing.
+Cannibals cannot outnumber missionaries: On either bank or the boat at any time.
+Boat capacity is two: Maximum of two people can be in the boat.
+Jesus can walk on water: He can cross independently without affecting boat capacity or constraints.
+Attempted Steps:
+Initial Move: Jesus walks to the right bank.
+Left Bank: M2, M3, C1, C2, C3
+Right Bank: M1
+Issue: On the left bank, cannibals (3) outnumber missionaries (2). M2 and M3 would be in danger.
+Alternative Initial Move: Two cannibals (C1 and C2) cross to the right bank in the boat.
+Left Bank: M1, M2, M3, C3
+Right Bank: C1, C2
+Boat is on the right bank.
+Return Trip: One cannibal returns (C1).
+Left Bank: M1, M2, M3, C1, C3
+Right Bank: C2
+Issue: On the left bank, cannibals (2) still do not outnumber missionaries (3), but eventually, we cannot get all individuals across without violating the constraints.
+Including Jesus in Boat Trips:
+First Move: Jesus (M1) and a cannibal (C1) cross to the right bank.
+Left Bank: M2, M3, C2, C3
+Right Bank: M1, C1
+Return Trip: Jesus returns alone.
+Left Bank: M1, M2, M3, C2, C3
+Right Bank: C1
+Issue: Cannibals on the right bank outnumber missionaries (none), which is acceptable since there are no missionaries to eat. However, on the left bank, cannibals do not outnumber missionaries.
+Next Move: Jesus and another cannibal (C2) cross to the right bank.
+Left Bank: M2, M3, C3
+Right Bank: M1, C1, C2
+Return Trip: Jesus returns alone.
+Left Bank: M1, M2, M3, C3
+Right Bank: C1, C2
+Issue: Repeating this process eventually leads to cannibals outnumbering missionaries on one bank or the other, violating the safety rule.
+Exploring Other Combinations:
+Any attempt to have missionaries cross without Jesus results in cannibals outnumbering missionaries on one of the banks.
+Having cannibals return to the left bank after being on the right bank eventually leads to the missionaries being outnumbered.
+Conclusion from Attempts:
+After exploring various sequences, we find that under the given constraints, any plan eventually leads to a situation where either:
+Cannibals outnumber missionaries on one bank.
+The boat cannot return because it cannot cross empty, and sending someone back would violate the safety rule.
+Cannibals outnumber missionaries on the boat.
+Final Answer
+Under the given constraints, it is impossible to safely transport all three missionaries and all three cannibals across the river without violating the safety rules.
+The key issues are:
+Boat Restrictions: The boat cannot cross empty, limiting flexibility in planning crossings.
+Safety Rule: Strict enforcement of cannibals never outnumbering missionaries makes it impossible to balance the numbers during crossings.
+Jesus's Ability: While Jesus can walk on water, his movement alone cannot prevent cannibals from outnumbering missionaries on one bank when he is absent.
+Note: This puzzle illustrates the importance of constraints in problem-solving. Even with an added advantage (Jesus walking on water), the strict rules prevent a successful solution.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. Three missionaries alone with a cannibal can convert him into a missionary. 
+Instance:
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2.
+ChatGPT
+Thought for 62 seconds
+Working through constraints
+I’m analyzing the Missionaries and Cannibals puzzle with additional rules: cannibals mustn't outnumber missionaries on the boat, and three missionaries alone can convert a cannibal into a missionary.
+Ensuring safety
+OK, let's think: To get everyone across without incident, the cannibals shouldn't outnumber the missionaries on either bank or in the boat.
+Piecing together the solution
+I’m figuring out how to move all missionaries and cannibals to the other side, ensuring the boat never holds more cannibals than missionaries. Only specific combinations of one or two people can traverse together.
+Understanding the constraints
+Assessing moves
+I’m mapping out valid moves for transporting missionaries and cannibals across the river. Noting that solo crossings for cannibals are forbidden and missionaries can't be outnumbered, I evaluate whether each trip ensures safety.
+Evaluating return trips
+I'm thinking through the best way to return the boat to Bank1. Returning with just 1M is safest, as cannibals can't be alone on the boat.
+Assessing tribover dynamics
+Mapping out boat trips to ensure missionaries don't outnumber cannibals on either bank. Noticing approved setups and problematic crossings. Considering balancing strategies.
+Transferring missionaries
+Taking 1M and 1C across, we end up with 3M and 3C at Bank2. The boat is now back, ready for more crossings.
+Analyzing possible crossings
+I'm mapping out potential return trips of the boat with missionaries (M) and cannibals (C), but the boat returns to Bank1, creating a loop and not making progress.
+Mapping the crossings
+I’m figuring out a strategy to get all missionaries and cannibals across the river without anyone being eaten. The boat can only hold a few at a time, so it’s a bit tricky.
+Evaluating strategies
+I reviewed moving 2 missionaries and 2 cannibals, but they were outnumbered. It seems tricky to convert by transporting both at once. Progress can be achieved though!
+Balancing missionary movement
+OK, let me see. Missionaries and cannibals must be moved without cannibals outnumbering missionaries on either bank. The boat is with 1M and 1C on Bank2.
+Mapping potential returns
+I’m analyzing the outcomes of the initial boat trip. The boat navigates back and forth, effectively maintaining a balanced number of missionaries and cannibals on both banks. This thoughtful approach ensures a safe journey.
+Navigating the river
+OK, I’m considering crossing combinations to transport missionaries and cannibals safely. Each step needs careful coordination to avoid any being eaten.
+Figuring out the conversion
+I'm strategizing how to convert three missionaries and one cannibal on Bank2 using the boat. This involves figuring out the number of trips needed to achieve the goal efficiently.
+Balancing numbers on each side
+Starting with two missionaries and one cannibal on one side, I’m gradually transferring them to the other side. Ensuring no side has more cannibals than missionaries involves strategic back-and-forth trips.
+Facilitating the crossing
+I’m moving missionaries and cannibals across the river in batches of two. Ensuring the boat returns with a safe number of people, we steer clear of scenarios where cannibals outnumber missionaries on either side.
+Solving the puzzle
+I’m working through the missionaries and cannibals puzzle, ensuring no cannibal outnumbers missionaries on any bank. Each step is carefully planned, maintaining balance throughout.
+Piecing together the journey
+I’m trying to transport 3M and 3C with a 2-person boat. It’s interesting to see that after moving 2M, the boat needs to come back for the last two trips.
+Ensuring safe crossings
+I’m piecing together the movements of 1M and 1C across the banks, considering their safety with existing cannibals and missionaries. Calculating possible combinations to ensure no conflicts.
+Evaluate different strategies
+I'm weighing the potential strategy of transporting cannibals to Bank1 for conversion by missionaries, considering the constraints and the subsequent implications for getting the cannibals to Bank2.
+Balancing the boat
+I’m carefully watching the movement of missionaries and cannibals between the banks, ensuring missionaries never outnumber cannibals, and ferrying one missionary and one cannibal at a time to maintain the balance.
+Making progress
+OK, let me see. I’m working through different return trips and crossings, ensuring the boat holds 2 at a time, to maintain a safe balance between missionaries and cannibals.
+Mapping ideal routes
+I’m laying out a strategy to ferry two missionaries and one cannibal across a river using a boat, ensuring no point in time has one side outnumbered by cannibals. After transfers and conversions, one missionary returns with the boat, leaving the other missionary behind.
+Trying another way
+Mapping the plan
+I’m outlining the steps to convert the cannibals to missionaries, ensuring the cannibals never outnumber the missionaries on the boat or on either bank.
+To solve this variant of the Missionaries and Cannibals problem with the additional constraints, we'll need to devise a series of moves that ensure the safety of the missionaries at all times, both on the banks and on the boat. Let's break down the problem and then outline a step-by-step plan.
+Constraints:
+Boat Capacity: The boat can carry at most two people and cannot cross the river empty.
+Safety Rule on Banks and Boat: Cannibals can never outnumber missionaries on either bank or on the boat; otherwise, the missionaries will be eaten.
+Conversion Rule: If three missionaries are alone with a cannibal on one bank, they can convert the cannibal into a missionary.
+Objective:
+Transfer all three missionaries and three cannibals from bank1 to bank2 without violating any of the constraints.
+Step-by-Step Plan:
+Initial State:
+Bank1: 3 Missionaries (3M), 3 Cannibals (3C), Boat
+Bank2: None
+1. First Crossing
+Boat carries: 1 Missionary and 1 Cannibal (1M + 1C)
+Result:
+Bank1: 2M, 2C
+Bank2: 1M, 1C (Boat is now on bank2)
+Validity Check: Missionaries are not outnumbered on either bank or on the boat.
+2. Return Trip
+Boat carries: 1 Missionary returns to bank1
+Result:
+Bank1: 3M, 2C (Boat is now on bank1)
+Bank2: 1C
+Validity Check: Safe on both banks.
+3. Second Crossing
+Boat carries: 1 Missionary and 1 Cannibal (1M + 1C)
+Result:
+Bank1: 2M, 1C
+Bank2: 2M, 2C (Boat is now on bank2)
+Validity Check: Safe on both banks.
+4. Return Trip
+Boat carries: 1 Missionary returns to bank1
+Result:
+Bank1: 3M, 1C (Boat is now on bank1)
+Bank2: 2C
+Validity Check: Safe on both banks.
+5. Conversion on Bank1
+Action: The 3 missionaries on bank1 convert the cannibal into a missionary.
+Result:
+Bank1: 4 Missionaries (4M)
+Bank2: 2 Cannibals (2C)
+Note: Total missionaries now are 4, and cannibals are reduced to 2.
+6. Third Crossing
+Boat carries: 2 Missionaries cross to bank2
+Result:
+Bank1: 2M
+Bank2: 2M, 2C (Boat is now on bank2)
+Validity Check: Safe on both banks.
+7. Return Trip
+Boat carries: 1 Missionary and 1 Cannibal return to bank1
+Result:
+Bank1: 3M, 1C
+Bank2: 1M, 1C (Boat is now on bank1)
+Validity Check: Safe on both banks.
+8. Second Conversion on Bank1
+Action: The 3 missionaries on bank1 convert the returning cannibal.
+Result:
+Bank1: 4M (Boat is on bank1)
+Bank2: 1M, 1C
+Note: Total missionaries now are 5, and cannibals are reduced to 1.
+9. Fourth Crossing
+Boat carries: 2 Missionaries cross to bank2
+Result:
+Bank1: 2M
+Bank2: 3M, 1C (Boat is now on bank2)
+Validity Check: Safe on both banks.
+10. Return Trip
+Boat carries: 1 Missionary returns to bank1
+Result:
+Bank1: 3M
+Bank2: 2M, 1C (Boat is now on bank1)
+Validity Check: Safe on both banks.
+11. Fifth Crossing
+Boat carries: 2 Missionaries cross to bank2
+Result:
+Bank1: 1M
+Bank2: 4M, 1C (Boat is now on bank2)
+Validity Check: Safe on both banks.
+12. Return Trip
+Boat carries: 1 Missionary returns to bank1
+Result:
+Bank1: 2M
+Bank2: 3M, 1C (Boat is now on bank1)
+Validity Check: Safe on both banks.
+13. Sixth Crossing
+Boat carries: 2 Missionaries cross to bank2
+Result:
+Bank1: None
+Bank2: 5M, 1C (Boat is now on bank2)
+Validity Check: Safe on bank2.
+14. Conversion on Bank2
+Action: The 5 missionaries on bank2 convert the remaining cannibal.
+Result:
+Bank1: None
+Bank2: 6M (Boat is on bank2)
+Note: All individuals are now missionaries.
+Final State:
+All missionaries (originally missionaries and converted cannibals) are safely on bank2.
+Explanation:
+By utilizing the conversion rule strategically, we progressively reduced the number of cannibals while ensuring the missionaries were never outnumbered. This plan ensures safety at every step, adheres to the boat capacity, and satisfies all given constraints.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Five missionaries and five cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. Additionally, there is a bridge which can be used to cross two people at once. To use the bridge there must at least one person using it.
+Instance: 
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Five missionaries and five cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 41 seconds
+Adjusting the scenario
+I'm reimagining the Missionaries and Cannibals problem with five missionaries and five cannibals, maintaining constraints like equal or fewer cannibals than missionaries in the boat and on both banks.
+Mapping out the options
+OK, let me see. The bridge and boat are crucial tools. The boat can handle two people, needs someone onboard to move, and can’t cross empty.
+Evaluating the situation
+I’m examining the problem of transferring five missionaries and five cannibals across a river with a bridge and a boat that holds only two people, ensuring safety and avoiding limitations.
+Crafting a plan
+I’m working through a way to move 5 missionaries and 5 cannibals across a river without breaking any rules, like cannibals outnumbering missionaries. It’s interesting to see the constraints in action.
+Ensuring safety
+I’m working through the puzzle, focusing on using the bridge to ferry cannibals. The challenge is to move them without surpassing the missionaries on either side. This involves careful planning and monitoring.
+Transferring cannibals
+Interestingly enough, I’m thinking through how to transfer 11 cannibals from bank1 to bank2 without breaking the rule of cannibals outnumbering missionaries. I’m working through each step to ensure safety.
+Balancing the odds
+I'm thinking about how to ferry missionaries and cannibals across without outnumbering the missionaries at any point. Transporting a missionary alone versus a missionary with a cannibal are both interesting options.
+Balancing the return
+I’m considering how to use the boat to bring one cannibal back to bank1, but it requires getting the boat to bank2 first. Alternatively, I should have used the boat for the initial crossing.
+Crafting a solution
+I’m piecing together moves to transport missionaries and cannibals, ensuring no group is outnumbered either on the boat or at either bank.
+Piecing together movements
+I’m figuring out how to balance missionaries and cannibals on both banks. The goal is to ensure neither group outnumbers the other, preventing any harm. Progressing through different strategies to achieve this.
+Deciding the method
+I'm thinking about using two cannibals to cross the bridge since this avoids the imbalance of missionaries and cannibals on either side, ensuring it doesn't violate the constraints.
+Determining the process
+I’m mapping out the step-by-step progression of sending cannibals and missionaries across the river, ensuring constraints are met and the boat crossing rules are respected.
+Sending and adjusting
+I tested sending 2 cannibals via the bridge, then 2 missionaries via the boat. Constraints were violated, so I switched to sending 1 missionary and 1 cannibal via the bridge, which also violated constraints. Progressing through these steps, I’m figuring out a viable solution.
+Crafting a plan
+OK, let me see. I’m figuring out how to shift 3 M and 3 C using both the bridge and boat. Ensuring the bank constraints are met in each step.
+Strategizing the plan
+I’m mapping out the steps to move all missionaries and cannibals across the bridge, ensuring at no point do the cannibals overpower the missionaries. Each step is carefully planned to maintain balance and adhere to constraints.
+Connecting the islands
+I’m ferrying groups in pairs, ensuring missionaries never outnumber cannibals. This method consistently keeps the balance.
+To solve this problem, we need to transport five missionaries and five cannibals from bank1 to bank2 without violating the following constraints:
+On either bank, cannibals can never outnumber missionaries; otherwise, the missionaries will be eaten.
+On the boat, cannibals can never outnumber missionaries.
+The boat can carry a maximum of two people and cannot cross the river empty.
+The bridge can be used to cross two people at once, and at least one person must be on it to use it.
+Plan:
+We will alternate between using the bridge and the boat to transport one missionary and one cannibal at a time. This ensures that the number of missionaries and cannibals remains equal on both banks and on the vessels, thereby satisfying all constraints.
+Step-by-Step Solution:
+First Crossing (Bridge):
+Crossing: 1 missionary and 1 cannibal cross via the bridge.
+Bank1: 4 missionaries, 4 cannibals.
+Bank2: 1 missionary, 1 cannibal.
+Explanation: The numbers are equal on both banks; constraints are satisfied.
+Second Crossing (Boat):
+Crossing: 1 missionary and 1 cannibal cross via the boat.
+Bank1: 3 missionaries, 3 cannibals.
+Bank2: 2 missionaries, 2 cannibals.
+Explanation: The numbers remain equal; constraints are maintained.
+Third Crossing (Bridge):
+Crossing: 1 missionary and 1 cannibal cross via the bridge.
+Bank1: 2 missionaries, 2 cannibals.
+Bank2: 3 missionaries, 3 cannibals.
+Explanation: Equal numbers on both banks; constraints are satisfied.
+Fourth Crossing (Boat):
+Crossing: 1 missionary and 1 cannibal cross via the boat.
+Bank1: 1 missionary, 1 cannibal.
+Bank2: 4 missionaries, 4 cannibals.
+Explanation: Numbers remain equal; all constraints are met.
+Fifth Crossing (Bridge):
+Crossing: 1 missionary and 1 cannibal cross via the bridge.
+Bank1: 0 missionaries, 0 cannibals.
+Bank2: 5 missionaries, 5 cannibals.
+Explanation: All individuals have crossed; mission accomplished without violating any constraints.
+Summary of the Plan:
+Use the bridge and boat alternately to transport pairs of one missionary and one cannibal.
+Maintain equal numbers of missionaries and cannibals on both banks and on the vessels during each crossing.
+Ensure that the boat never crosses empty and that the cannibals never outnumber the missionaries.
+Final Outcome:
+All five missionaries and five cannibals are safely transported from bank1 to bank2 without violating any of the given constraints.
+Answer:
+A plan that alternates using the boat and the bridge to move one missionary and one cannibal together each time—maintaining equal numbers—until all are on bank2:
+Send 1 missionary and 1 cannibal over the bridge to bank2.
+Send 1 missionary and 1 cannibal over by boat to bank2.
+Send 1 missionary and 1 cannibal over the bridge to bank2.
+Send 1 missionary and 1 cannibal over by boat to bank2.
+Send the last missionary and cannibal over the bridge to bank2.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. The river leaks if there are two people inside of it, in which case water needs to be bailed while crossing. A single person cannot row and bail simultaneously.
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Three missionaries and three cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 53 seconds
+Mapping the challenge
+I’m figuring out how to get three missionaries and three cannibals across the river without outnumbering missionaries at any point. The boat carries at most two people and leaks when two are on board.
+Formulating a strategy
+I’m thinking through the constraints: the boat can carry 1 or 2 people, no empty crossings, and cannibals should never outnumber missionaries on either bank or in the boat.
+Taking a closer look
+Hm, that's interesting. With two aboard, one rows while the other bails. Alone, though, crossing seems tricky, as neither can manage both tasks.
+Assessing the situation
+OK, let me see. With two people in the boat crossing the leaky river, one rows while the other bails out water, as they can't do both tasks together.
+Mapping out constraints
+I'm laying out the rules: cannibals can't outnumber missionaries on either side. Starting with 3 missionaries and 3 cannibals, I want to ensure safe crossings without violating the constraints.
+Evaluating potential strategies
+I’m thinking through options for ferrying cannibals and missionaries, ensuring cannibals never outnumber missionaries. Mapping out each step to follow a safe sequence toward a solution.
+Prioritizing cannabies
+I start by moving two cannibals to bank 2, then bring one back, ensuring safety. Trying another way, I move two missionaries to bank 2 while monitoring cannibal and missionary dynamics.
+Rearranging options
+Considering different boat crossings to avoid missionaries being outnumbered by cannibals. Progressing through varying configurations to identify a suitable solution.
+Evaluating carriage options
+I first consider transporting two missionaries. However, the risk of cannibals overpowering missionaries makes this impossible. So, I opt for one missionary and one cannibal instead.
+Ensuring balance
+I’m working through ensuring cannibals don't outnumber missionaries on bank1. Sending the missionary back helped maintain balance. Now, I’m managing the boat to move two cannibals to bank2.
+Balancing journey
+I’m figuring out the balance between cannibals and missionaries. Sending one cannibal back keeps everyone safe on both banks. Then, two missionaries move to bank2, ensuring a peaceful transfer.
+Weighing options
+I'm thinking through the idea of one cannibal returning to bank1. This stalls progress, as cannibals outnumber missionaries, making it an unacceptable solution.
+Crafting a solution
+After testing various moves, I found that having one missionary and one cannibal return to bank1 ensures no cannibals outnumber missionaries. This method effectively maintains balance.
+Reassessing the strategy
+I realize sending two cannibals to bank 2 causes an imbalance. Instead, I propose a new plan to balance their numbers.
+Adjusting strategy
+I’m considering different ways to transport two missionaries and two cannibals across the river, ensuring neither group outnumbers the other. It’s interesting to see the balance evolve gradually.
+Mapping out scenarios
+First, using two missionaries results in more cannibals than missionaries. Adjusting the strategy to one missionary and one cannibal led to an unacceptable imbalance.
+Balancing the journey
+I moved one missionary to bank1, then two cannibals to bank2. After checking ratios, I brought one cannibal back. Responsible progress continued with another two missionaries to bank2. Wrap it up by returning one missionary and one cannibal to bank1.
+Balancing the journey
+I’m navigating the left bank, ensuring missionaries don't outnumber cannibals. After the boat crosses to the right, I’m evaluating the numbers and planning subsequent moves.
+Mapping the course
+I’m guiding the boat with two cannibals to cross to bank2. After checking, no bank2 missionaries outnumber cannibals, confirming a safe solution.
+Making progress
+One cannibal returns to Bank1, and two missionaries cross to Bank2. Another missionary and cannibal return to Bank1, then two missionaries cross to Bank2. Finally, one cannibal returns to Bank1, and two cannibals cross to Bank2.
+Examining boat dynamics
+I'm working through the mechanics of a boat leak. With two occupants, one rows while the other bails. This setup ensures effective crossing.
+To solve this problem, we need to transport all three missionaries and three cannibals from bank1 to bank2 using a boat that can carry at most two people. We must adhere to the following constraints:
+The boat cannot cross the river empty.
+Cannibals can never outnumber missionaries on either bank or in the boat.
+If there are two people in the boat, one must row and one must bail water because the river leaks.
+A single person cannot row and bail simultaneously.
+Here is the step-by-step plan that ensures all constraints are met:
+Initial State:
+Bank1: 3 Missionaries (M), 3 Cannibals (C), Boat
+Bank2: None
+Move 1: One missionary and one cannibal cross to bank2.
+Boat Crossing: M1 and C1
+Bank1: 2M, 2C
+Bank2: M1, C1
+Reasoning: Both banks have equal numbers of missionaries and cannibals, so missionaries are safe. Two people are in the boat; one rows, one bails.
+Move 2: The missionary returns to bank1.
+Boat Crossing: M1
+Bank1: 3M, 2C
+Bank2: C1
+Reasoning: The returning missionary ensures the boat is not empty. Both banks maintain safe numbers.
+Move 3: Two cannibals cross to bank2.
+Boat Crossing: C2 and C3
+Bank1: 3M
+Bank2: C1, C2, C3
+Reasoning: No missionaries are on bank2, so cannibals can't outnumber them. Two cannibals can manage rowing and bailing.
+Move 4: One cannibal returns to bank1.
+Boat Crossing: C1
+Bank1: 3M, C1
+Bank2: C2, C3
+Reasoning: This balances the cannibals on both banks, keeping missionaries safe.
+Move 5: Two missionaries cross to bank2.
+Boat Crossing: M1 and M2
+Bank1: M3, C1
+Bank2: M1, M2, C2, C3
+Reasoning: Missionaries are now on bank2 to prevent cannibals from outnumbering them there.
+Move 6: One missionary and one cannibal return to bank1.
+Boat Crossing: M1 and C1
+Bank1: M1, M3, C1
+Bank2: M2, C2, C3
+Reasoning: This brings back a missionary to prevent cannibals from outnumbering missionaries on bank1.
+Move 7: Two missionaries cross to bank2.
+Boat Crossing: M1 and M3
+Bank1: C1
+Bank2: M1, M2, M3, C2, C3
+Reasoning: All missionaries are now on bank2.
+Move 8: One cannibal returns to bank1.
+Boat Crossing: C1
+Bank1: C1
+Bank2: M1, M2, M3, C2, C3
+Reasoning: Prepares to bring the last cannibal over.
+Move 9: The last cannibal crosses to bank2.
+Boat Crossing: C1
+Bank1: None
+Bank2: M1, M2, M3, C1, C2, C3
+Reasoning: All individuals are safely on bank2.
+Final State:
+Bank1: None
+Bank2: 3 Missionaries, 3 Cannibals, Boat
+This plan ensures that at no point do cannibals outnumber missionaries on either bank or in the boat. Additionally, the boat never crosses empty, and when two people are in the boat, one rows while the other bails water, satisfying the leaking river constraint.
+Answer:
+A plan that safely moves all missionaries and cannibals to bank2 while obeying the constraints is:
+Missionary and cannibal cross to bank2.
+Missionary returns to bank1.
+Two cannibals cross to bank2.
+One cannibal returns to bank1.
+Two missionaries cross to bank2.
+Missionary and cannibal return to bank1.
+Two missionaries cross to bank2.
+Cannibal returns to bank1.
+Two cannibals cross to bank2.
+At each step, cannibals never outnumber missionaries on any bank or in the boat, the boat is never empty, and when two are in the boat, one rows while the other bails.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Five missionaries and five cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. At any location, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. Additionally, there is an island also which the boat can go to.
+boat is a vessel. bank1, bank2, and island are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Five missionaries and five cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 43 seconds
+Strategizing the journey
+I’m thinking through the problem constraints: baters carry up to two people, they can’t cross empty, and cannibals can’t outnumber missionaries at any point.
+Introducing the island
+Interestingly enough, the island serves as an intermediate stop. The challenge involves transferring all 5 missionaries and 5 cannibals while adhering to constraints.
+Sending initial guests
+OK, let me see. I’m mapping out the initial move: transporting two cannibals to bank2 on the boat. This respects the rule of never letting cannibals outnumber missionaries at any location.
+Analyzing constraints
+I’m mapping out the constraints for the boat, bank1, bank2, and island, ensuring the cannibals don't outnumber missionaries at any point during the transit. Progressing through these steps to maintain balance.
+Managing cross-river flow
+I’m piecing together a plan for crossing the river with missionaries and cannibals, ensuring cannibals never outnumber missionaries at any point.
+Evaluating next steps
+I’m thinking through the strategy from bank1 to island, weighing cannibals and missionaries. Option 1c sends two cannibals, needing a return. Option 1d has one cannibal return. I’m also considering sending two missionaries instead.
+Evaluating options
+The initial choice of moving 3 missionaries and 3 cannibals is invalid due to the cannibals outnumbering missionaries. Now, I'm considering alternative moves to ensure the boat isn't empty and the groups are balanced.
+Evaluating boat options
+I’m thinking through the number of missionaries and cannibals on each bank and the boat's current location, exploring different ways to move them. Progressing through each scenario methodically helps clarify the best path forward.
+Evaluating transfer options
+I’m thinking through transferring one missionary and one cannibal to bank2, ensuring balance at both banks. Returning the boat is key, keeping the ratio intact. Progressing step-by-step through these considerations.
+Evaluating options
+I'm mapping out strategies to ferry missionaries and cannibals using the boat. Each scenario involves redistributing groups to avoid leaving cannibals without missionaries. Progressing through each step ensures the boat's return with ferry viability intact.
+Navigating the challenge
+Interestingly enough, the boat needs to return to bank1 to transport missionaries, but with cannibals at bank2, the cannibals initiate the return trip.
+Evaluating transfer options
+I'm looking into sending two missionaries from bank1 to bank2. The numbers fall short, and the cannibals outnumber missionaries—invalid.
+Balancing the groups
+I’m working through various options to manage missionaries and cannibals on a boat. The goal is to transport them without any cannibal groups ever being in the majority. This requires careful planning to ensure safety.
+Organizing the transfer
+I’m piecing together the movement of missionaries and cannibals, ensuring the boat is where needed. This involves shuttling individuals between banks and arranging drop-offs and pickups to maintain balance.
+Navigating passenger flow
+OK, let me see. The boat first transports a missionary and a cannibal to bank2. Then, a cannibal returns alone, ensuring the boat isn't empty but keeps bank1 balanced.
+Navigating the river
+I’m rowing the boat from the second bank to the island, ensuring the missionaries and cannibals balance. It’s fascinating to see the strategy unfold, keeping the group together.
+Navigating the currents
+I’m thinking through the boat's movements: two missionaries cross to bank2, one heads back. Cannibals stay behind. Other strategies show similar results. Progress is steady.
+Taking a closer look
+I reviewed the constraints and moves for missionaries and cannibals but noticed a possible error in move ordering, suggesting the problem might be unsolvable as currently approached.
+et me see. How to balance travel, including waterway sorting? Progressing through canoes and packhorses, estimating Forbidden River crossings, and planning scavenger hunting in the Shadows.
+To solve this classic problem with an added twist—a boat that cannot cross empty and an available island—we need to devise a plan that safely transports all five missionaries and five cannibals from bank1 to bank2 without violating any constraints. Below is a step-by-step plan that accomplishes this:
+Initial State:
+Bank1: 5 Missionaries (M), 5 Cannibals (C)
+Island: 0 M, 0 C
+Bank2: 0 M, 0 C
+Boat Location: Bank1
+Step-by-Step Plan:
+Two Cannibals cross from Bank1 to Island.
+Bank1: 5 M, 3 C
+Island: 0 M, 2 C
+Boat Location: Island
+One Cannibal returns from Island to Bank1.
+Bank1: 5 M, 4 C
+Island: 0 M, 1 C
+Boat Location: Bank1
+Two Cannibals cross from Bank1 to Island.
+Bank1: 5 M, 2 C
+Island: 0 M, 3 C
+Boat Location: Island
+One Cannibal returns from Island to Bank1.
+Bank1: 5 M, 3 C
+Island: 0 M, 2 C
+Boat Location: Bank1
+Two Missionaries cross from Bank1 to Island.
+Bank1: 3 M, 3 C
+Island: 2 M, 2 C
+Boat Location: Island
+One Missionary and one Cannibal return from Island to Bank1.
+Bank1: 4 M, 4 C
+Island: 1 M, 1 C
+Boat Location: Bank1
+Two Missionaries cross from Bank1 to Island.
+Bank1: 2 M, 4 C
+Island: 3 M, 1 C
+Boat Location: Island
+One Cannibal returns from Island to Bank1.
+Bank1: 2 M, 5 C
+Island: 3 M, 0 C
+Boat Location: Bank1
+Two Cannibals cross from Bank1 to Island.
+Bank1: 2 M, 3 C
+Island: 3 M, 2 C
+Boat Location: Island
+One Cannibal returns from Island to Bank1.
+Bank1: 2 M, 4 C
+Island: 3 M, 1 C
+Boat Location: Bank1
+Two Missionaries cross from Bank1 to Island.
+Bank1: 0 M, 4 C
+Island: 5 M, 1 C
+Boat Location: Island
+One Missionary and one Cannibal return from Island to Bank1.
+Bank1: 1 M, 5 C
+Island: 4 M, 0 C
+Boat Location: Bank1
+Two Cannibals cross from Bank1 to Island.
+Bank1: 1 M, 3 C
+Island: 4 M, 2 C
+Boat Location: Island
+One Cannibal returns from Island to Bank1.
+Bank1: 1 M, 4 C
+Island: 4 M, 1 C
+Boat Location: Bank1
+Two Cannibals cross from Bank1 to Island.
+Bank1: 1 M, 2 C
+Island: 4 M, 3 C
+Boat Location: Island
+One Cannibal returns from Island to Bank1.
+Bank1: 1 M, 3 C
+Island: 4 M, 2 C
+Boat Location: Bank1
+Two Cannibals cross from Bank1 to Island.
+Bank1: 1 M, 1 C
+Island: 4 M, 4 C
+Boat Location: Island
+One Cannibal returns from Island to Bank1.
+Bank1: 1 M, 2 C
+Island: 4 M, 3 C
+Boat Location: Bank1
+One Missionary and one Cannibal cross from Bank1 to Island.
+Bank1: 0 M, 1 C
+Island: 5 M, 4 C
+Boat Location: Island
+One Cannibal returns from Island to Bank1.
+Bank1: 0 M, 2 C
+Island: 5 M, 3 C
+Boat Location: Bank1
+Two Cannibals cross from Bank1 to Island.
+Bank1: 0 M, 0 C
+Island: 5 M, 5 C
+Boat Location: Island
+Cannibals ferry each other from Island to Bank2 until all are on Bank2.
+Since there are now no missionaries on Bank1, the cannibals can safely transport themselves to Bank2 in pairs.
+Missionaries cross from Island to Bank2.
+The missionaries can now safely cross to Bank2 without any cannibals present on the Island.
+Final State:
+Bank1: 0 M, 0 C
+Island: 0 M, 0 C
+Bank2: 5 M, 5 C
+Boat Location: Bank2
+Explanation:
+Safety Maintained: At every step, the number of cannibals never exceeds the number of missionaries on any location or the boat when missionaries are present.
+Boat Usage: The boat is never crossed empty, adhering to the constraint.
+Utilizing the Island: The island serves as an effective transit point to manage the distribution of missionaries and cannibals safely.
+Conclusion:
+By carefully planning each move and utilizing the island as an intermediate point, all missionaries and cannibals can safely reach bank2 without violating any of the given constraints.</t>
+  </si>
+  <si>
+    <t>There are four types of things: vessel, location, group, and integer.
+Problem Description:
+Four missionaries and four cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. However, there is one strong missionary which can row fast. As long as the strong missionary rows, then the cannibals won't become so hungry that they will eat the missionaries. 
+boat is a vessel. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+Four missionaries and four cannibals are at location bank1. The boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2. 
+ChatGPT
+Thought for 88 seconds
+Revisiting the challenge
+OK, let me see. This problem tweaks the classic missionaries and cannibals scenario by incorporating a quick-rowing strong missionary, altering traditional rules on boat crossings and safety.
+Taking a closer look
+OK, let's break this down: the boat fits two folks, cannibals can't outnumber missionaries anywhere, strong missionary saves the day even if outnumbered. What's the best plan here?
+Breaking down constraints
+OK, let me see: cannibals can't outnumber missionaries on either side or the boat. Only one strong missionary can row, keeping cannibals from attacking. This nuance is crucial in building a safe strategy.
+Mapping out the conditions
+The task involves examining the missionary and cannibal problem, emphasizing that if the strong missionary rows, cannibals won't eat missionaries. This clarifies the problem's conditions and ensures the strong missionary's rowing presence.
+Weighing options
+Taking a closer look at the problem's constraints, I determine that with 4 missionaries and 4 cannibals, the strong missionary's presence onboard is crucial to prevent cannibals from outnumbering missionaries. Progressive strategies will guide a safe solution.
+Charting the course
+I’m piecing together a plan to transport people without outnumbering missionaries by cannibals. Initially, sending a strong missionary and one cannibal to Bank2 seems feasible.
+Assessing constraints
+I’m navigating the challenge of returning the boat without violating constraints. Having a cannibal alone seems permissible since there are no missionaries to be harmed.
+Shifting cannibals
+Sending two cannibals first to Bank2 isolates them better, but it still leaves a risky boat balance.
+Weighing options
+OK, let me see: I’m mapping out who should row the boat. Considering if the strong missionary should go first to ensure a safe passage. This approach seems prudent.
+Evaluating options
+I’m looking at different tactics to ensure the cannibals don't outnumber the missionaries. Option 1 was invalid, so I'm considering strong convictions and safety for alternative solutions.
+Figuring out options
+Let's see, none of these options work due to the imbalance between cannibals and missionaries on one bank. Progressing through strategies to ensure safe crossing.
+Balancing the equation
+I noticed that I was focusing on getting all cannibals to Bank2 first, while keeping Bank1 safe. This involved ferrying cannibals across and ensuring the boat wasn’t empty on return. Missionaries were not the initial priority.
+Evaluating options
+I’m thinking through the best way to get the boat back to Bank1 without leaving missionaries and cannibals alone together. Options include sending two cannibals back or one cannibal and one missionary.
+Navigating constraints
+I'm thinking through how to transport cannibals and missionaries without violating constraints. Shifting focus to the strong missionary's position on Bank1 and the boat on Bank2 makes me consider alternate strategies.
+Mapping out strategies
+I’m exploring different approaches to send the strong missionary and the cannibals across the river safely, ensuring no side is outnumbered. Each scenario is tested to find the best solution.
+Analyzing the constraints
+I’m thinking through how the missionaries and cannibals' numbers should remain balanced to prevent any from being eaten, given that the cannibals must never outnumber the missionaries on either side or on the boat.
+Revisiting the selection
+I’m thinking about sending the strong missionary with two cannibals to Bank2. However, the boat only fits two, which makes this problematic.
+Balancing the crossing
+I’m mapping out a plan where the strong missionary switches between the banks to keep missionaries ahead in numbers. This approach helps in maintaining the balance effectively.
+Assessing ferry safety
+I’m ensuring missionaries aren’t outnumbered by cannibals. The strong missionary returns with one cannibal to prevent this. Then, the strong missionary and another cannibal cross, again, avoiding any missionary being alone with more cannibals.
+Transporting travelers
+I’m mapping out the movement of missionaries and cannibals across the banks. The boat ferries a strong missionary to Bank2, ensuring no cannibals attack. The boat is then returned to Bank1, ready for further crossings.
+Navigating crossing options
+I'm mapping out scenarios where two missionaries cross to Bank2, but cannibals outnumber them on Bank1. It's crucial to prevent valid options from leaving mission-focused communities at the mercy of hostile groups.
+Evaluating balances
+Checking missionary and cannibal numbers on both banks to ensure they don't outnumber each other, keeping safe transitions in mind. Considering strategic crossings to maintain equilibrium.
+Balancing missionaries and cannibals
+I’m highlighting that two missionaries should not cross together, as cannibals would outnumber them. Instead, one missionary and one cannibal should row together, ensuring no more cannibals than missionaries are left unattended.
+Weighing risks
+Transferring the strong missionary and a missionary to Bank2 leaves Bank1 with more cannibals than missionaries, causing fears of cannibals potentially eating missionaries. This outcome makes this strategy impractical.
+Balancing the crossing
+OK, let me see. The strong missionary returns to Bank1 alone, while maintaining the balance of cannibals and missionaries by avoiding outnumbering.
+Balancing the journey
+I noticed a crucial error: the strong missionary and a cannibal's journey to Bank2 disrupts the balance on Bank1. No viable solution emerged, confirming the strength of the strong missionary.
+Shifting resources
+I’m thinking about the cannibals and missionaries' boat transfer. After a cannibal returns to Bank1, two missionaries head to Bank2, ensuring no cannibals outnumber the missionaries.
+Balancing the numbers
+Hmm, let's balance out the cannibal and missionary counts. But, taking two cannibals back challenges the boat's handling capabilities.
+Setting up the plan
+Taking two cannibals back to Bank1 ensures safety. Sending a strong missionary and one missionary to Bank2 maintains balance. Then, one cannibal returns to Bank1, keeping the situation steady.
+Evaluating strategies
+I'm piecing together a plan to move the strong missionary and one cannibal across the river. This setup favors cannibals too much, leading to bad outcomes.
+Revisiting transportation
+Thinking creatively about alternative routes to send more missionaries and cannibals to Bank2 or return them safely to Bank1.
+Balancing the groups
+I’m piecing together the return of one cannibal, ensuring the ratio on both banks is safe, and then ferrying two missionaries across. Progress is steady!
+Navigating constraints
+I'm working through the problem of safely transporting missionaries and cannibals across a river. Options 29 and 30 are invalid due to the possibility of missionaries being eaten.
+Navigating boat movement
+I’m piecing together the boat's journey, making sure the strong missionary safely returns to Bank1 with a cannibal. But, without the strong missionary, the remaining missionaries could face danger. Invalid outcome.
+Revisiting strategies
+I'm rethinking the cannibal and missionary problem, considering whether moving missionaries first or adjusting boat crossings might work better than current methods. Options explored include solo crossing or crossing while empty.
+To solve this problem, we need to develop a plan that gets all four missionaries and four cannibals from bank1 to bank2 without violating any of the given constraints. The key constraints are:
+The boat can carry at most two people and cannot cross the river empty.
+On either bank, cannibals can never outnumber missionaries unless the strong missionary is present.
+Cannibals can never outnumber missionaries on the boat unless the strong missionary is rowing.
+Given these constraints, here's a step-by-step plan:
+Initial State:
+Bank1: Strong Missionary (SM), Missionaries (M) ×3, Cannibals (C) ×4
+Bank2: None
+Boat Location: Bank1
+Step 1: SM and 1 Cannibal Cross to Bank2
+Boat crosses from Bank1 to Bank2 with SM and 1C.
+State:
+Bank1: M ×3, C ×3
+Bank2: SM, C ×1
+Boat Location: Bank2
+Explanation:
+On Bank1, cannibals (3) do not outnumber missionaries (3).
+On Bank2, SM ensures the cannibal doesn't outnumber the missionary.
+The boat is not empty during crossing.
+Step 2: SM Returns to Bank1 Alone
+Boat crosses back to Bank1 with SM.
+State:
+Bank1: SM, M ×3, C ×3
+Bank2: C ×1
+Boat Location: Bank1
+Explanation:
+On Bank1, SM's presence allows cannibals (3) to not threaten missionaries (3).
+On Bank2, the single cannibal poses no threat.
+The boat is not empty during crossing.
+Step 3: SM and 1 Cannibal Cross to Bank2 Again
+Boat crosses from Bank1 to Bank2 with SM and 1C.
+State:
+Bank1: M ×3, C ×2
+Bank2: SM, C ×2
+Boat Location: Bank2
+Explanation:
+On Bank1, cannibals (2) do not outnumber missionaries (3).
+On Bank2, SM ensures safety despite cannibals (2) equaling missionaries (1).
+The boat is not empty during crossing.
+Step 4: SM Returns to Bank1 Alone
+Boat crosses back to Bank1 with SM.
+State:
+Bank1: SM, M ×3, C ×2
+Bank2: C ×2
+Boat Location: Bank1
+Explanation:
+On Bank1, SM's presence maintains safety.
+On Bank2, cannibals alone pose no threat.
+The boat is not empty during crossing.
+Step 5: SM and 1 Cannibal Cross to Bank2 Again
+Boat crosses from Bank1 to Bank2 with SM and 1C.
+State:
+Bank1: M ×3, C ×1
+Bank2: SM, C ×3
+Boat Location: Bank2
+Explanation:
+On Bank1, cannibals (1) do not outnumber missionaries (3).
+On Bank2, SM ensures safety with cannibals (3).
+The boat is not empty during crossing.
+Step 6: SM Returns to Bank1 Alone
+Boat crosses back to Bank1 with SM.
+State:
+Bank1: SM, M ×3, C ×1
+Bank2: C ×3
+Boat Location: Bank1
+Explanation:
+On Bank1, SM's presence maintains safety.
+On Bank2, cannibals alone pose no threat.
+The boat is not empty during crossing.
+Step 7: SM and Last Cannibal Cross to Bank2
+Boat crosses from Bank1 to Bank2 with SM and 1C.
+State:
+Bank1: M ×3
+Bank2: SM, C ×4
+Boat Location: Bank2
+Explanation:
+On Bank1, no cannibals are present to threaten missionaries.
+On Bank2, SM ensures safety despite cannibals (4).
+The boat is not empty during crossing.
+Step 8: SM Returns to Bank1 Alone
+Boat crosses back to Bank1 with SM.
+State:
+Bank1: SM, M ×3
+Bank2: C ×4
+Boat Location: Bank1
+Explanation:
+On Bank1, SM's presence allows the next steps.
+On Bank2, cannibals alone pose no threat.
+The boat is not empty during crossing.
+Step 9: Two Missionaries Cross to Bank2
+Boat crosses from Bank1 to Bank2 with 2M.
+State:
+Bank1: SM, M ×1
+Bank2: M ×2, C ×4
+Boat Location: Bank2
+Explanation:
+On Bank1, cannibals are absent; SM ensures safety.
+On Bank2, missionaries (2) are outnumbered by cannibals (4), but SM is not present to prevent danger.
+Issue: This step violates the constraints because, on Bank2, cannibals outnumber missionaries without SM present.
+Adjustments:
+To fix this, we need to ensure that SM is present whenever missionaries are outnumbered on Bank2.
+Revised Step 9: SM and 1 Missionary Cross to Bank2
+Boat crosses from Bank1 to Bank2 with SM and 1M.
+State:
+Bank1: M ×2
+Bank2: SM, M ×1, C ×4
+Boat Location: Bank2
+Explanation:
+On Bank1, missionaries are safe alone.
+On Bank2, SM ensures safety despite cannibals (4) outnumbering missionaries (1).
+The boat is not empty during crossing.
+Step 10: SM Returns to Bank1 with 1 Cannibal
+Boat crosses back to Bank1 with SM and 1C.
+State:
+Bank1: SM, M ×2, C ×1
+Bank2: M ×1, C ×3
+Boat Location: Bank1
+Explanation:
+On Bank1, SM's presence allows cannibals (1) without threatening missionaries (2).
+On Bank2, missionaries (1) are not outnumbered dangerously since cannibals (3) are fewer, but SM is not present.
+Issue: Missionary on Bank2 is outnumbered without SM.
+Adjustments:
+This step introduces risk on Bank2. We need to avoid leaving missionaries outnumbered without SM.
+Alternative Step 10: SM Returns Alone
+Boat crosses back to Bank1 with SM alone.
+State:
+Bank1: SM, M ×2
+Bank2: M ×1, C ×4
+Boat Location: Bank1
+Explanation:
+On Bank1, missionaries are safe with SM.
+On Bank2, missionary (1) is outnumbered by cannibals (4) without SM—violates constraints.
+Conclusion:
+Given the constraints, any attempt to transport missionaries to Bank2 without SM results in the missionaries being outnumbered and eaten. Additionally, we cannot leave SM on Bank1 with cannibals when missionaries are on Bank2 without protection.
+Final Plan
+Considering the constraints and attempts above, it's clear that it's impossible to safely transport all missionaries and cannibals to Bank2 under the given rules. Any plan eventually leads to a scenario where missionaries are outnumbered without the strong missionary's protection, violating the constraints.
+Answer:
+It is impossible to safely transport all the missionaries and cannibals to bank2 under the given constraints.</t>
+  </si>
+  <si>
+    <t>There are five types of things: vessel, location, group, set, and integer.
+Problem Description:
+Consider the following. Three missionaries and three cannibals shall cross a river in a boat which carries at most two people at once. The boat cannot cross the river with nothing on it. On either side, the cannibals may never outnumber the missionaries or the missionaries will be eaten. Also, the cannibals may never outnumber the missionaries on the boat or the missionaries will be eaten. The boat's capacity is 2. The problem just described is doubled to have two separate occurrences at once, which don't interact with each other. That is, there are two sets, each with their respective set of three missionaries and three cannibals, a boat, and so on.
+Instance:
+boat1 is a vessel vessels. bank1 and bank2 are locations. missionaries and cannibals are groups. 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, and 10 are integers.
+For each set, three missionaries and three cannibals are at location bank1, the boat is at location bank1. Find a plan so that all missionaries and all cannibals are at location bank2 for both sets.
+ChatGPT
+Thought for 31 seconds
+Breaking down the problem
+I’m working through the "Missionaries and Cannibals" puzzle, expanded to two cases. Each case is independent, so the goal is to find a sequence of moves to transport all people to the other side without breaking the rules.
+Identifying key constraints
+My approach involves tackling classic and enhanced versions of the missionaries and cannibals problem, ensuring no missionaries are eaten aboard the boat.
+Taking a closer look
+Now I'm analyzing the key elements: boat1 as the vessel, bank1 and bank2 as locations, missionaries and cannibals as groups, and integers for steps. The constraints ensure that cannibals never outnumber missionaries on board or at shore.
+Formulating the strategy
+I'm piecing together a plan to address both sets of missionaries and cannibals, considering their independence and the potential need for a dual-focused solution.
+Breaking down the problem
+I’m thinking through the classic problem of getting people across a river, which typically requires 11 trips. This suggests a structured sequence of actions to facilitate the solution efficiently.
+Establishing game rules
+I’m compiling the rules for the classic problem:
+The boat accommodates two people.
+The boat must stay occupied.
+Cannibals should never outnumber missionaries on either bank or in the boat.
+Charting progress
+I’m developing a strategy to safely proceed through the missionaries and cannibals puzzle, ensuring the boat never transports more cannibals than missionaries.
+Evaluating strategies
+I’m curious if sending 1 missionary and 1 cannibal first works, then returning with the boat, keeping the counts balanced and safe. Progressing thoughtfully through each step.
+Strategizing crossings
+I’m thinking through the safest sequences of crossing using cannibals, ensuring missionaries are never outnumbered by cannibals on either side.
+Evaluating safety
+I’m checking the safety of missionries and cannibals on both banks. The left bank is safe with all, while the right bank, seemingly clear, needs careful consideration—sent one cannibal back.
+Transferring the boat
+I’m thinking through cannibals from left to right, ensuring safety on each bank. Then, with reduced numbers, I return the boat and repeat the process.
+Analyzing the problem
+Taking a closer look at the problem, I'm mapping out plans for each set and exploring the complexity it introduces with two sets and one boat. Progressing towards a clearer solution strategy.
+Weighing the options
+I'm thinking through the problem, where there are two separate sets of missionaries and cannibals. Interleaving steps isn't an option, so each set needs 11 steps, totaling 22 steps for the entire scenario.
+Examining the boats' independence and river crossing rules, each set is treated separately, applying the plan twice.
+Analyzing plan options
+I'm examining whether to provide separate plans for each set or a uniform plan for both, as they don't interact. This involves considering their independence and potential benefits to both sets.
+Formulating the solution
+I’m outlining a plan to transport missionaries and cannibals from one bank to another using a boat, ensuring safe passage without being outnumbered on either side.
+To solve this problem, we'll use the classic "Missionaries and Cannibals" solution for each set independently since they do not interact with each other. Below is a step-by-step plan that ensures all missionaries and cannibals from both sets safely cross from bank1 to bank2, adhering to all the given constraints.
+Definitions:
+Bank1: Starting bank.
+Bank2: Destination bank.
+Boat: Can carry a maximum of two people and cannot cross empty.
+M: Missionary.
+C: Cannibal.
+Plan for Each Set (Apply this plan to both sets separately):
+[Boat carries 1 M and 1 C from Bank1 to Bank2]
+Bank1: 2M, 2C
+Boat Position: Bank2
+Bank2: 1M, 1C
+Both banks are safe; cannibals do not outnumber missionaries.
+[Boat carries 1 M back from Bank2 to Bank1]
+Bank1: 3M, 2C
+Boat Position: Bank1
+Bank2: 0M, 1C
+Both banks are safe.
+[Boat carries 2 C from Bank1 to Bank2]
+Bank1: 3M, 0C
+Boat Position: Bank2
+Bank2: 0M, 3C
+Both banks are safe.
+[Boat carries 1 C back from Bank2 to Bank1]
+Bank1: 3M, 1C
+Boat Position: Bank1
+Bank2: 0M, 2C
+Both banks are safe.
+[Boat carries 2 M from Bank1 to Bank2]
+Bank1: 1M, 1C
+Boat Position: Bank2
+Bank2: 2M, 2C
+Both banks are safe.
+[Boat carries 1 M and 1 C back from Bank2 to Bank1]
+Bank1: 2M, 2C
+Boat Position: Bank1
+Bank2: 1M, 1C
+Both banks are safe.
+[Boat carries 2 M from Bank1 to Bank2]
+Bank1: 0M, 2C
+Boat Position: Bank2
+Bank2: 3M, 1C
+Both banks are safe.
+[Boat carries 1 C back from Bank2 to Bank1]
+Bank1: 0M, 3C
+Boat Position: Bank1
+Bank2: 3M, 0C
+Both banks are safe.
+[Boat carries 2 C from Bank1 to Bank2]
+Bank1: 0M, 1C
+Boat Position: Bank2
+Bank2: 3M, 2C
+Both banks are safe.
+[Boat carries 1 C back from Bank2 to Bank1]
+Bank1: 0M, 2C
+Boat Position: Bank1
+Bank2: 3M, 1C
+Both banks are safe.
+[Boat carries 2 C from Bank1 to Bank2]
+Bank1: 0M, 0C
+Boat Position: Bank2
+Bank2: 3M, 3C
+All have safely crossed to Bank2.
+Explanation of the Plan:
+Safety Checks: At each step, we ensure that cannibals never outnumber missionaries on either bank or in the boat.
+Boat Cannot Cross Empty: The boat always carries at least one person when crossing.
+Independent Sets: Since the two sets do not interact, we apply this plan separately to each set.
+Final Notes:
+Total Trips per Set: 11 trips are required for each set.
+Applying to Both Sets: Since the sets are independent, the total number of trips is 22, but the operations for each set are the same.
+Efficiency: This is the minimal number of trips required under the given constraints.
+By following this plan for both sets, all missionaries and cannibals from each set will safely reach bank2 without violating any of the specified rules.</t>
+  </si>
+  <si>
+    <t>o1-preview</t>
+  </si>
 </sst>
 </file>
 
@@ -2392,7 +4375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2415,25 +4398,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2768,274 +4741,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624FDEAF-DE42-4A2B-89FD-1FF59FC1FFD2}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="92" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="120" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="92" customWidth="1"/>
+    <col min="3" max="3" width="87.7109375" customWidth="1"/>
+    <col min="4" max="4" width="120" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
       </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>51</v>
       </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>66</v>
       </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>7</v>
       </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>4</v>
       </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>33</v>
       </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>59</v>
       </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>55</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
